--- a/data/hotels_by_city/Dallas/Dallas_shard_746.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_746.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="571">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1619 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r579042018-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>106518</t>
+  </si>
+  <si>
+    <t>579042018</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Personal stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a personal trip and the room was in the back , but the breakfast was awful and the room need to smell fresh . The front desk shouldn’t display snacks to be sold on the front check in area that’s unprofessional to me . </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r573963881-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>573963881</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r573475374-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>573475374</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Ready to come home now.. dallas was fun.. But me and my famies 1st night stay not so much... So Thursday me, my wife, 2yr old son n 3yr old daughter arrived in plano Tx to check into our reserved motel room The super 8 in plano tx. My wife picked the place for location and because of a complimentary breakfast (that i did not see). Friends and family this is Not the place you want to stay whenever you visit North TX. As you can see from the pictures, this 1st night a safe that the motel mounted into sheet rock in our room, fell out of the wall onto my sons foot. Seeing is that it was late in the day and the manager was not avail my wife emailed him and he emailed back basically distancing the hotel from any wrong doing.. The next morning while me and my family were packing to leave, i was searching for my kids travel cups, and noticed what looked like to be a seringe.. I flashed a picture of it, went to the lobby, spoke to a receptionist who was also unconcerned with anything guest related, and requested the manager come talk to me asap.. The manager Ismael came, looked me in my face with this blank stare, acting as if he was sympathetic to my situation, but could do nothing but give a discount on our next stay. Our...Ready to come home now.. dallas was fun.. But me and my famies 1st night stay not so much... So Thursday me, my wife, 2yr old son n 3yr old daughter arrived in plano Tx to check into our reserved motel room The super 8 in plano tx. My wife picked the place for location and because of a complimentary breakfast (that i did not see). Friends and family this is Not the place you want to stay whenever you visit North TX. As you can see from the pictures, this 1st night a safe that the motel mounted into sheet rock in our room, fell out of the wall onto my sons foot. Seeing is that it was late in the day and the manager was not avail my wife emailed him and he emailed back basically distancing the hotel from any wrong doing.. The next morning while me and my family were packing to leave, i was searching for my kids travel cups, and noticed what looked like to be a seringe.. I flashed a picture of it, went to the lobby, spoke to a receptionist who was also unconcerned with anything guest related, and requested the manager come talk to me asap.. The manager Ismael came, looked me in my face with this blank stare, acting as if he was sympathetic to my situation, but could do nothing but give a discount on our next stay. Our next stay? This guy had no clue. Before i even told my wife about the seringe i was just going to try and handle it (ie. Refund our 1 night) without her knowing about the seringe. After 5 or 6 unsuccessful attempts to resolve this situation, the manager ismael says he's going to call the police to come to our room because they deal with narcotics and they can get the meedle out of the rm.. And potentially traumatize my kids? Its as if the manager was saying i had the needle and i had the drugs, trying to scare me i guess. Anyway, the cops. Came talked to me, i showed them these same two pictures and then the manager says his wife advised he give half our $ (65) back. By that time this situation was uncontrollable and not negotiable. . sorry this message was uber long but everyone who travels with family and friends should know of this experience.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ready to come home now.. dallas was fun.. But me and my famies 1st night stay not so much... So Thursday me, my wife, 2yr old son n 3yr old daughter arrived in plano Tx to check into our reserved motel room The super 8 in plano tx. My wife picked the place for location and because of a complimentary breakfast (that i did not see). Friends and family this is Not the place you want to stay whenever you visit North TX. As you can see from the pictures, this 1st night a safe that the motel mounted into sheet rock in our room, fell out of the wall onto my sons foot. Seeing is that it was late in the day and the manager was not avail my wife emailed him and he emailed back basically distancing the hotel from any wrong doing.. The next morning while me and my family were packing to leave, i was searching for my kids travel cups, and noticed what looked like to be a seringe.. I flashed a picture of it, went to the lobby, spoke to a receptionist who was also unconcerned with anything guest related, and requested the manager come talk to me asap.. The manager Ismael came, looked me in my face with this blank stare, acting as if he was sympathetic to my situation, but could do nothing but give a discount on our next stay. Our...Ready to come home now.. dallas was fun.. But me and my famies 1st night stay not so much... So Thursday me, my wife, 2yr old son n 3yr old daughter arrived in plano Tx to check into our reserved motel room The super 8 in plano tx. My wife picked the place for location and because of a complimentary breakfast (that i did not see). Friends and family this is Not the place you want to stay whenever you visit North TX. As you can see from the pictures, this 1st night a safe that the motel mounted into sheet rock in our room, fell out of the wall onto my sons foot. Seeing is that it was late in the day and the manager was not avail my wife emailed him and he emailed back basically distancing the hotel from any wrong doing.. The next morning while me and my family were packing to leave, i was searching for my kids travel cups, and noticed what looked like to be a seringe.. I flashed a picture of it, went to the lobby, spoke to a receptionist who was also unconcerned with anything guest related, and requested the manager come talk to me asap.. The manager Ismael came, looked me in my face with this blank stare, acting as if he was sympathetic to my situation, but could do nothing but give a discount on our next stay. Our next stay? This guy had no clue. Before i even told my wife about the seringe i was just going to try and handle it (ie. Refund our 1 night) without her knowing about the seringe. After 5 or 6 unsuccessful attempts to resolve this situation, the manager ismael says he's going to call the police to come to our room because they deal with narcotics and they can get the meedle out of the rm.. And potentially traumatize my kids? Its as if the manager was saying i had the needle and i had the drugs, trying to scare me i guess. Anyway, the cops. Came talked to me, i showed them these same two pictures and then the manager says his wife advised he give half our $ (65) back. By that time this situation was uncontrollable and not negotiable. . sorry this message was uber long but everyone who travels with family and friends should know of this experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r561386514-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>561386514</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>No, just NO</t>
+  </si>
+  <si>
+    <t>When staying in Plano, Texas, along Highway 75, you’d think that you’d find reasonable, fairly priced accommodations easily. Well, so I thought, when I decided on the “Sloppy 8” for a night’s stay. I wished I had researched it before plunking my CC down. 
+At a $73 price point, the room included all the things you’d expect - and far less. The room itself was replete with fine decor touches, including ripped up walls in the corner, cheap and tawdry pressed wood furniture, a wonderfully small (26”?) TV, and lovely brass wall lamps, crookedly hung, but with clear plastic lampshade protectors. The plain paper printed note requesting “no tampering with the smoke detector” pinned to the wall was also a nice touch.
+The bathroom? Lush and inviting, with broken plaster all around the shower, a scratched sink, and the coup de grace - a stained small towel with a long black hair attached to it, neatly tucked into the towel rack. Exceptional.
+Finishing features included a sprinkler head in the ceiling hanging too low, and the hole stuffed with a paper towel. The corner ceiling lamp sitting cockeyed with one screw was also visually appealing. 
+I refused to pull back anything more than the top cover to sleep, for fear of what I’d find.
+Earlier this week, I stayed in a 1960’s era motel that was clearly built of cinder block walls, with textured wallpaper, and rusty fixtures in the...When staying in Plano, Texas, along Highway 75, you’d think that you’d find reasonable, fairly priced accommodations easily. Well, so I thought, when I decided on the “Sloppy 8” for a night’s stay. I wished I had researched it before plunking my CC down. At a $73 price point, the room included all the things you’d expect - and far less. The room itself was replete with fine decor touches, including ripped up walls in the corner, cheap and tawdry pressed wood furniture, a wonderfully small (26”?) TV, and lovely brass wall lamps, crookedly hung, but with clear plastic lampshade protectors. The plain paper printed note requesting “no tampering with the smoke detector” pinned to the wall was also a nice touch.The bathroom? Lush and inviting, with broken plaster all around the shower, a scratched sink, and the coup de grace - a stained small towel with a long black hair attached to it, neatly tucked into the towel rack. Exceptional.Finishing features included a sprinkler head in the ceiling hanging too low, and the hole stuffed with a paper towel. The corner ceiling lamp sitting cockeyed with one screw was also visually appealing. I refused to pull back anything more than the top cover to sleep, for fear of what I’d find.Earlier this week, I stayed in a 1960’s era motel that was clearly built of cinder block walls, with textured wallpaper, and rusty fixtures in the bathroom. At $63, it EXCELLED compared to this dump. The “family owners” here should be ashamed. It’s ugly, worn out, poorly maintained, and dirty. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Sonny I, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>When staying in Plano, Texas, along Highway 75, you’d think that you’d find reasonable, fairly priced accommodations easily. Well, so I thought, when I decided on the “Sloppy 8” for a night’s stay. I wished I had researched it before plunking my CC down. 
+At a $73 price point, the room included all the things you’d expect - and far less. The room itself was replete with fine decor touches, including ripped up walls in the corner, cheap and tawdry pressed wood furniture, a wonderfully small (26”?) TV, and lovely brass wall lamps, crookedly hung, but with clear plastic lampshade protectors. The plain paper printed note requesting “no tampering with the smoke detector” pinned to the wall was also a nice touch.
+The bathroom? Lush and inviting, with broken plaster all around the shower, a scratched sink, and the coup de grace - a stained small towel with a long black hair attached to it, neatly tucked into the towel rack. Exceptional.
+Finishing features included a sprinkler head in the ceiling hanging too low, and the hole stuffed with a paper towel. The corner ceiling lamp sitting cockeyed with one screw was also visually appealing. 
+I refused to pull back anything more than the top cover to sleep, for fear of what I’d find.
+Earlier this week, I stayed in a 1960’s era motel that was clearly built of cinder block walls, with textured wallpaper, and rusty fixtures in the...When staying in Plano, Texas, along Highway 75, you’d think that you’d find reasonable, fairly priced accommodations easily. Well, so I thought, when I decided on the “Sloppy 8” for a night’s stay. I wished I had researched it before plunking my CC down. At a $73 price point, the room included all the things you’d expect - and far less. The room itself was replete with fine decor touches, including ripped up walls in the corner, cheap and tawdry pressed wood furniture, a wonderfully small (26”?) TV, and lovely brass wall lamps, crookedly hung, but with clear plastic lampshade protectors. The plain paper printed note requesting “no tampering with the smoke detector” pinned to the wall was also a nice touch.The bathroom? Lush and inviting, with broken plaster all around the shower, a scratched sink, and the coup de grace - a stained small towel with a long black hair attached to it, neatly tucked into the towel rack. Exceptional.Finishing features included a sprinkler head in the ceiling hanging too low, and the hole stuffed with a paper towel. The corner ceiling lamp sitting cockeyed with one screw was also visually appealing. I refused to pull back anything more than the top cover to sleep, for fear of what I’d find.Earlier this week, I stayed in a 1960’s era motel that was clearly built of cinder block walls, with textured wallpaper, and rusty fixtures in the bathroom. At $63, it EXCELLED compared to this dump. The “family owners” here should be ashamed. It’s ugly, worn out, poorly maintained, and dirty. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r557422418-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>557422418</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Sonny I, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r556398035-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>556398035</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sonny I, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r547754529-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>547754529</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Not clean</t>
+  </si>
+  <si>
+    <t>Stated here last year. It was alright.  However, this time the floor was nasty. Not even vacuumed. The bed and bathroom we're alright. Also, the men who worked there made me feel uncomfortable.  Not friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stated here last year. It was alright.  However, this time the floor was nasty. Not even vacuumed. The bed and bathroom we're alright. Also, the men who worked there made me feel uncomfortable.  Not friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r542983052-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>542983052</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Pastor Al</t>
+  </si>
+  <si>
+    <t>I really felt welcome and was treated very kindly. Also the rooms were nice and clean, not at all smelly. I've stayed here at Super 8 Motel  in Plano, Texas many times  and it's always been a good experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Sonny I, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2017</t>
+  </si>
+  <si>
+    <t>I really felt welcome and was treated very kindly. Also the rooms were nice and clean, not at all smelly. I've stayed here at Super 8 Motel  in Plano, Texas many times  and it's always been a good experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r536026828-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>536026828</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Sonny I, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r529260498-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>529260498</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Extremely rude, unprofessional, run down, avoid at all costs!!</t>
+  </si>
+  <si>
+    <t>Extremely rude, unprofessional, run down, dingy don't waste your money. I paid for an extra night and requested 12:00pm late check out, by 1130 the front desk elderly man was banging on my door threatening to call the police if I didn't leave immidelty.  I was in the middle of a shower and tried explaining to him i had requested 12 check out instead of 11 normal and he didn't care to listen. Just kept yelling that I needed to get out now, was calling the police and money talks. COMPLETLY uncalled for, i was disgusted with the way this was handled, he didn't care to listen to me when I explained I had already requested just an hour over normal check out at 11. This is not how you treat people, if you don't mind being treated like garbage by all means stay here, if you want to be treated with dignity and respect avoid this hotel at all costs!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Extremely rude, unprofessional, run down, dingy don't waste your money. I paid for an extra night and requested 12:00pm late check out, by 1130 the front desk elderly man was banging on my door threatening to call the police if I didn't leave immidelty.  I was in the middle of a shower and tried explaining to him i had requested 12 check out instead of 11 normal and he didn't care to listen. Just kept yelling that I needed to get out now, was calling the police and money talks. COMPLETLY uncalled for, i was disgusted with the way this was handled, he didn't care to listen to me when I explained I had already requested just an hour over normal check out at 11. This is not how you treat people, if you don't mind being treated like garbage by all means stay here, if you want to be treated with dignity and respect avoid this hotel at all costs!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r526412240-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>526412240</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Gr8 price....and that's about it.</t>
+  </si>
+  <si>
+    <t>The clerk's find any reason to charge extra. On my first day the room was infested with roaches and the AC did not work. When I went to speak with the front desk about it I was told that I would have to wait to get another room 5 hours before check out. I was not happy about this nor did I get much sleep staying in the room. There were even Roaches on the bed. I came back to give this place another chance only to be charged extra for a room that I really did not need. When I told the gentleman at the front on my second night that I wanted to give my Wyndham Rewards number he told me that I would have to wait to get my receipt and manually enter the stay. I was also charged twice for the same day. The front desk could not find my original receipt for the original day that I came instead they just charged me twice for the same day. I was not happy about this and there really wasn't anything done to compensate me. In one of the rooms that I stayed in the fire alarm kept going off every minute on the minute and we had to get the maintenance man to come and fix it. In another room that I stayed the TV did not work so instead of moving us to a room...The clerk's find any reason to charge extra. On my first day the room was infested with roaches and the AC did not work. When I went to speak with the front desk about it I was told that I would have to wait to get another room 5 hours before check out. I was not happy about this nor did I get much sleep staying in the room. There were even Roaches on the bed. I came back to give this place another chance only to be charged extra for a room that I really did not need. When I told the gentleman at the front on my second night that I wanted to give my Wyndham Rewards number he told me that I would have to wait to get my receipt and manually enter the stay. I was also charged twice for the same day. The front desk could not find my original receipt for the original day that I came instead they just charged me twice for the same day. I was not happy about this and there really wasn't anything done to compensate me. In one of the rooms that I stayed in the fire alarm kept going off every minute on the minute and we had to get the maintenance man to come and fix it. In another room that I stayed the TV did not work so instead of moving us to a room with a normal TV the TV was replaced from something that look like it came out of the Museum of television set history. I don't think I had seen as TV like this in 10 years. Volume didn't work on the remote and everything had to be done manually. When staying on the second or third floor it was hard not to be taken aback by the blistering heat of the hallways. In another room the air conditioning unit kept making noises and I did not get any sleep at all when it came time to speak with the front desk about it the front desk guy said that he could come in and take a look at it or switch the room out it was 3 in the morning by the time this happened and I'm sure as you can imagine it would have been quite a hassle to pack everything up and moving to another room. Nothing not to mention I really don't like the idea of having the maintenance man and the front desk man coming in and out of my room all the time due to unsatisfactory living conditions. My Wyndham Rewards number was finally added to my account when I saw how easy it was for the front desk guy to do it I was very disappointed that the original front desk I couldn't just do it then and there he didn't have the patience to wait for me to provide him with my number. I found this to be extremely disrespectful and rude. I have become pretty loyal customer of this MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>The clerk's find any reason to charge extra. On my first day the room was infested with roaches and the AC did not work. When I went to speak with the front desk about it I was told that I would have to wait to get another room 5 hours before check out. I was not happy about this nor did I get much sleep staying in the room. There were even Roaches on the bed. I came back to give this place another chance only to be charged extra for a room that I really did not need. When I told the gentleman at the front on my second night that I wanted to give my Wyndham Rewards number he told me that I would have to wait to get my receipt and manually enter the stay. I was also charged twice for the same day. The front desk could not find my original receipt for the original day that I came instead they just charged me twice for the same day. I was not happy about this and there really wasn't anything done to compensate me. In one of the rooms that I stayed in the fire alarm kept going off every minute on the minute and we had to get the maintenance man to come and fix it. In another room that I stayed the TV did not work so instead of moving us to a room...The clerk's find any reason to charge extra. On my first day the room was infested with roaches and the AC did not work. When I went to speak with the front desk about it I was told that I would have to wait to get another room 5 hours before check out. I was not happy about this nor did I get much sleep staying in the room. There were even Roaches on the bed. I came back to give this place another chance only to be charged extra for a room that I really did not need. When I told the gentleman at the front on my second night that I wanted to give my Wyndham Rewards number he told me that I would have to wait to get my receipt and manually enter the stay. I was also charged twice for the same day. The front desk could not find my original receipt for the original day that I came instead they just charged me twice for the same day. I was not happy about this and there really wasn't anything done to compensate me. In one of the rooms that I stayed in the fire alarm kept going off every minute on the minute and we had to get the maintenance man to come and fix it. In another room that I stayed the TV did not work so instead of moving us to a room with a normal TV the TV was replaced from something that look like it came out of the Museum of television set history. I don't think I had seen as TV like this in 10 years. Volume didn't work on the remote and everything had to be done manually. When staying on the second or third floor it was hard not to be taken aback by the blistering heat of the hallways. In another room the air conditioning unit kept making noises and I did not get any sleep at all when it came time to speak with the front desk about it the front desk guy said that he could come in and take a look at it or switch the room out it was 3 in the morning by the time this happened and I'm sure as you can imagine it would have been quite a hassle to pack everything up and moving to another room. Nothing not to mention I really don't like the idea of having the maintenance man and the front desk man coming in and out of my room all the time due to unsatisfactory living conditions. My Wyndham Rewards number was finally added to my account when I saw how easy it was for the front desk guy to do it I was very disappointed that the original front desk I couldn't just do it then and there he didn't have the patience to wait for me to provide him with my number. I found this to be extremely disrespectful and rude. I have become pretty loyal customer of this More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r516886523-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>516886523</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low end, even considering the price. </t>
+  </si>
+  <si>
+    <t>Put employees here. Not again! Almost never got room cool. Hallways and lobby not kept cool at all. Front desk management not really friendly or helpful. Very disappointing. Even for price,  not again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sonny I, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Put employees here. Not again! Almost never got room cool. Hallways and lobby not kept cool at all. Front desk management not really friendly or helpful. Very disappointing. Even for price,  not again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r500466810-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>500466810</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Family outing</t>
+  </si>
+  <si>
+    <t>They need a crash course in running a business... the manager seemed to be the only one knowledgeable about anything going on there, however he was wasn't there much. Sometimes keeping things in the family isn't always profitable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>They need a crash course in running a business... the manager seemed to be the only one knowledgeable about anything going on there, however he was wasn't there much. Sometimes keeping things in the family isn't always profitable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r493304681-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>493304681</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r491030098-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>491030098</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>BIG ROACH</t>
+  </si>
+  <si>
+    <t>I saw  three big roaches  in my room I told the front desk he said he would move me in the morning. Me and my  family check out. The carpet was very dirty , no breakfast, towels on a table in the lobby no soap in the room , room smell very bad. I will never stay here again nasty place every MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I saw  three big roaches  in my room I told the front desk he said he would move me in the morning. Me and my  family check out. The carpet was very dirty , no breakfast, towels on a table in the lobby no soap in the room , room smell very bad. I will never stay here again nasty place every More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r486397053-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>486397053</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Super 8 review</t>
+  </si>
+  <si>
+    <t>The location of the hotel and the price was reasonable, although Super 8 should invest in getting better Tv's than using the old school squared tv's. When having children or if anybody as myself who enjoy's playing his PS4 or watching Netflix, it would be better if having flat screen Tv's that automatically has the HDMI cord to the system. The toilet needed to be fix based on each time someone would flush it; it would go down slowly or the water would rise up as if it was stopped up. Also the knob on the faucet came off whenever you wanted to wash your hands which was very frustrating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonny I, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>The location of the hotel and the price was reasonable, although Super 8 should invest in getting better Tv's than using the old school squared tv's. When having children or if anybody as myself who enjoy's playing his PS4 or watching Netflix, it would be better if having flat screen Tv's that automatically has the HDMI cord to the system. The toilet needed to be fix based on each time someone would flush it; it would go down slowly or the water would rise up as if it was stopped up. Also the knob on the faucet came off whenever you wanted to wash your hands which was very frustrating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r485181635-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485181635</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little disappointed </t>
+  </si>
+  <si>
+    <t>No remote in the room had to ask for it they gave me one and sent maintenance staff seems fairly friendly but not real sure about the neighborhood or the folks hanging around the parking lot not making judgment against them. Not likely to recommend it for the price and kind of worried about my truck in the parking lot. The room is clean and the linens smell clean haven't been in this area for about 12 years and it seems to have changed. MoreShow less</t>
+  </si>
+  <si>
+    <t>No remote in the room had to ask for it they gave me one and sent maintenance staff seems fairly friendly but not real sure about the neighborhood or the folks hanging around the parking lot not making judgment against them. Not likely to recommend it for the price and kind of worried about my truck in the parking lot. The room is clean and the linens smell clean haven't been in this area for about 12 years and it seems to have changed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r482674288-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>482674288</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r475824433-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>475824433</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r474682993-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>474682993</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Absolutely NASTY!</t>
+  </si>
+  <si>
+    <t>I will never stay here again!  I have video.  Window broke, cigarette burns in blankets, paint peeling, TV didn't work, AC unit squealed all night!  Never again...stay away!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r473838853-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>473838853</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>My friend was staying here for a week and the old man...</t>
+  </si>
+  <si>
+    <t>My friend was staying here for a week and the old man behind the desk charged her 10 just for me visiting.which quite frankly is extortion if ive ever seen it</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r472438307-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>472438307</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE STAY! DON'T STAY HERE!!!!!!!</t>
+  </si>
+  <si>
+    <t>Horrible, Lights didn't work, the phone wasn't connected. I was on the 4th floor next to the open room that they were using for storage. Elevator didn't work well. And the hotel had a stale smell to it. The desk clerk wasn't very helpful. The tub was busted in the floor, I could go on  and on with how terrible the stay was. I actually want a FULL REFUND! Horrible STAY EVER!!!!!!! Don't Stay HERE!!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r469364371-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>469364371</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r469139316-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>469139316</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Place is rundown, toilet rocked when you sat on it, causing...</t>
+  </si>
+  <si>
+    <t>Place is rundown, toilet rocked when you sat on it, causing you to hold on to counter, took shower and water was tepid.  The hotel added an extra charge to my card which I am still trying to find what it is for.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r454612059-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>454612059</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, it was a decent place. The bed was very comfortable. The complimentary "breakfast" was not good. The cinnamon rolls and other pastries were very stale and the coffee, what little there was, was cold. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r439912792-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>439912792</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>More than horrible</t>
+  </si>
+  <si>
+    <t>The room was dirty, the breakfast was terrible and I was charged twice on my credit card. This is a rip off hotel ran by not very reputable people. I have been trying to get my money back since 10/31/16 to no avail.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r439536624-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>439536624</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r432467768-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>432467768</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r429835837-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>429835837</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Horrible staff</t>
+  </si>
+  <si>
+    <t>Seen manager argue with staff very loudly when I was checking in.I had to clean my own room !horrible house keeping!Breakfast was old donut's staff took for ever to send maintenance and when he did come he was rude as well ! Never again will I stay here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r427639234-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>427639234</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>A really good choice on a budget.</t>
+  </si>
+  <si>
+    <t>We had a ground floor room. It wasn't spacious, but it was comfortable and clean. Interior doors on the room add to security. Vending machines had a nice selection and reasonable prices. They don't use much AC on the inside hallways, but the room machines are well maintained and quiet. Easy success to major freeways with many places nearby to eat. Staff was friendly  and helpful. Keyed strongbox in the room is another nice touch.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r407249630-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>407249630</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r406634470-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>406634470</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Plano/Dallas Area Overnight from 14 to 15 August 2016</t>
+  </si>
+  <si>
+    <t>The hotel lacked general cleanliness (old dirt was evident as well as roaches in the lobby meal area). The staff was generally unenthusiastic about their duties. The outside appearance is poorly maintained and it appears to have been vandalized (rocks throw at air conditioning units, the building walls, and a window was boarded up). The electrical plugs were worn to the point that the cord would just fall out of the plug, thus loosing power to the device. I intend to avoid this hotel in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r406339806-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>406339806</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Good A/C, comfortable bed.</t>
+  </si>
+  <si>
+    <t>Those are the only good things I can say about this Super8.  Arriving, the building is still suffering from a severe hail storm several months ago.  A/C unit covers shredded, boarded windows, splotchy paint.  The lobby is dark and hot.  1990's carpet &amp; furniture.  Halls are dark and hot, casino carpeting.  The strong, strong smell of cleaning products permeates everything.  At one point we considering leaving simply because of the stench.  The hostess was ready to take, offered nothing other than the obligatory info.  Did I mention the places stinks of cleaning products??  Would recommend Wyndham and Super 8 remove their signage from this substandard facility.  Coffee maker didn't work, no strainer in sink.  Electrical outlets may be dangerous, I had to unplug microwave to plug in my CPAP (had to use all of a 10 ft. cord to get to that outlet)  Did I forget to say the place reeks?!?!MoreShow less</t>
+  </si>
+  <si>
+    <t>Those are the only good things I can say about this Super8.  Arriving, the building is still suffering from a severe hail storm several months ago.  A/C unit covers shredded, boarded windows, splotchy paint.  The lobby is dark and hot.  1990's carpet &amp; furniture.  Halls are dark and hot, casino carpeting.  The strong, strong smell of cleaning products permeates everything.  At one point we considering leaving simply because of the stench.  The hostess was ready to take, offered nothing other than the obligatory info.  Did I mention the places stinks of cleaning products??  Would recommend Wyndham and Super 8 remove their signage from this substandard facility.  Coffee maker didn't work, no strainer in sink.  Electrical outlets may be dangerous, I had to unplug microwave to plug in my CPAP (had to use all of a 10 ft. cord to get to that outlet)  Did I forget to say the place reeks?!?!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r395838713-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>395838713</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!!  DO NOT WASTE YOUR MONEY!!!</t>
+  </si>
+  <si>
+    <t>As soon as we walked in the lobby I had my doubts about the hotel.  The lobby had a STRONG chemical odor.  I thought to myself "maybe the room won't smell like this".  I walked in our room &amp; I couldn't believe this place was a Super 8.  The carpet was dirty, I found a dead roach, the chemical smell was evident in the room.  The walls had dirty hand prints on it.  EVERYTHING was outdated.  My father is an asthmatic, the chemical smell induced  an asthma attack, I had to take him to a local hospital.  After my father was ok, I left him at the hospital.  
+Obviously we could not stay there, I informed front desk we could not stay there &amp; would like a refund.  The guy said call back later to speak to manager, since he was the only one to give refunds.  I got tired of calling, every time I called front desk they always said "call back later he should be in office then".  FINALLY I got tired &amp; went to visit the manager, Nic.  
+Nic was very defensive told me I "should've stayed at the Marriott " &amp; would not give me a refund but he did cancel the 2nd night reservation.  I told him this Super 8 was a dump &amp;I was going to notify Super 8 &amp; complain.  He started to shout at me.  I just walked out.
+I hope someone...As soon as we walked in the lobby I had my doubts about the hotel.  The lobby had a STRONG chemical odor.  I thought to myself "maybe the room won't smell like this".  I walked in our room &amp; I couldn't believe this place was a Super 8.  The carpet was dirty, I found a dead roach, the chemical smell was evident in the room.  The walls had dirty hand prints on it.  EVERYTHING was outdated.  My father is an asthmatic, the chemical smell induced  an asthma attack, I had to take him to a local hospital.  After my father was ok, I left him at the hospital.  Obviously we could not stay there, I informed front desk we could not stay there &amp; would like a refund.  The guy said call back later to speak to manager, since he was the only one to give refunds.  I got tired of calling, every time I called front desk they always said "call back later he should be in office then".  FINALLY I got tired &amp; went to visit the manager, Nic.  Nic was very defensive told me I "should've stayed at the Marriott " &amp; would not give me a refund but he did cancel the 2nd night reservation.  I told him this Super 8 was a dump &amp;I was going to notify Super 8 &amp; complain.  He started to shout at me.  I just walked out.I hope someone from this district Super 8 headquarters does a surprise inspection on this dump &amp; remove the Super 8 logo because his Super 8 does not represent Super 8!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>As soon as we walked in the lobby I had my doubts about the hotel.  The lobby had a STRONG chemical odor.  I thought to myself "maybe the room won't smell like this".  I walked in our room &amp; I couldn't believe this place was a Super 8.  The carpet was dirty, I found a dead roach, the chemical smell was evident in the room.  The walls had dirty hand prints on it.  EVERYTHING was outdated.  My father is an asthmatic, the chemical smell induced  an asthma attack, I had to take him to a local hospital.  After my father was ok, I left him at the hospital.  
+Obviously we could not stay there, I informed front desk we could not stay there &amp; would like a refund.  The guy said call back later to speak to manager, since he was the only one to give refunds.  I got tired of calling, every time I called front desk they always said "call back later he should be in office then".  FINALLY I got tired &amp; went to visit the manager, Nic.  
+Nic was very defensive told me I "should've stayed at the Marriott " &amp; would not give me a refund but he did cancel the 2nd night reservation.  I told him this Super 8 was a dump &amp;I was going to notify Super 8 &amp; complain.  He started to shout at me.  I just walked out.
+I hope someone...As soon as we walked in the lobby I had my doubts about the hotel.  The lobby had a STRONG chemical odor.  I thought to myself "maybe the room won't smell like this".  I walked in our room &amp; I couldn't believe this place was a Super 8.  The carpet was dirty, I found a dead roach, the chemical smell was evident in the room.  The walls had dirty hand prints on it.  EVERYTHING was outdated.  My father is an asthmatic, the chemical smell induced  an asthma attack, I had to take him to a local hospital.  After my father was ok, I left him at the hospital.  Obviously we could not stay there, I informed front desk we could not stay there &amp; would like a refund.  The guy said call back later to speak to manager, since he was the only one to give refunds.  I got tired of calling, every time I called front desk they always said "call back later he should be in office then".  FINALLY I got tired &amp; went to visit the manager, Nic.  Nic was very defensive told me I "should've stayed at the Marriott " &amp; would not give me a refund but he did cancel the 2nd night reservation.  I told him this Super 8 was a dump &amp;I was going to notify Super 8 &amp; complain.  He started to shout at me.  I just walked out.I hope someone from this district Super 8 headquarters does a surprise inspection on this dump &amp; remove the Super 8 logo because his Super 8 does not represent Super 8!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r394063025-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>394063025</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Will never stay at any Super 8</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel with my children and I will never stay at a Super 8 again. I had booked the hotel for 3 nights and as soon as we walked in, We were not happy with the hotel. We decided to give the hotel a chance and got our room. As soon as we walked into out room, we found a roach on the floor, my kids and I could not walk around the room barefoot because it was sticky, and i even found beer bottle caps under the table... not hidden but right there under the table. I went to the front desk and told them that we want to change our reservation from 3 nights to 1 night. We wanted to leave and cancel our stay but it was passed the cancellation time. The guy at the front got offended and said that he will not change it to one night. That I have to stay a minimum of two nights. I told him why i wanted to change my stay and he said that he will not change it to one night. My family and I were forced to pay for the 2 nights,  The next morning, we woke up for breakfast and were hated it. The Frosted Flakes were called "assorted flakes" which consisted of corn flakes, frosted flakes, honey nut cheerios, and some other cereal. It was sour tasting somehow....My wife and I stayed at this hotel with my children and I will never stay at a Super 8 again. I had booked the hotel for 3 nights and as soon as we walked in, We were not happy with the hotel. We decided to give the hotel a chance and got our room. As soon as we walked into out room, we found a roach on the floor, my kids and I could not walk around the room barefoot because it was sticky, and i even found beer bottle caps under the table... not hidden but right there under the table. I went to the front desk and told them that we want to change our reservation from 3 nights to 1 night. We wanted to leave and cancel our stay but it was passed the cancellation time. The guy at the front got offended and said that he will not change it to one night. That I have to stay a minimum of two nights. I told him why i wanted to change my stay and he said that he will not change it to one night. My family and I were forced to pay for the 2 nights,  The next morning, we woke up for breakfast and were hated it. The Frosted Flakes were called "assorted flakes" which consisted of corn flakes, frosted flakes, honey nut cheerios, and some other cereal. It was sour tasting somehow. My son got one of the donuts and was so excited that they had donuts but they were stale and hard. An 8 year old said that they were the worst donuts ever. The milk was getting warm in the pot they had it sitting out in and the coffee was watery. I did address the issue with the staff but all he did was ask if it was too expensive instead of fixing the issue. After we checked out of our forced stay, I booked with another company that was not a Wyndham hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel with my children and I will never stay at a Super 8 again. I had booked the hotel for 3 nights and as soon as we walked in, We were not happy with the hotel. We decided to give the hotel a chance and got our room. As soon as we walked into out room, we found a roach on the floor, my kids and I could not walk around the room barefoot because it was sticky, and i even found beer bottle caps under the table... not hidden but right there under the table. I went to the front desk and told them that we want to change our reservation from 3 nights to 1 night. We wanted to leave and cancel our stay but it was passed the cancellation time. The guy at the front got offended and said that he will not change it to one night. That I have to stay a minimum of two nights. I told him why i wanted to change my stay and he said that he will not change it to one night. My family and I were forced to pay for the 2 nights,  The next morning, we woke up for breakfast and were hated it. The Frosted Flakes were called "assorted flakes" which consisted of corn flakes, frosted flakes, honey nut cheerios, and some other cereal. It was sour tasting somehow....My wife and I stayed at this hotel with my children and I will never stay at a Super 8 again. I had booked the hotel for 3 nights and as soon as we walked in, We were not happy with the hotel. We decided to give the hotel a chance and got our room. As soon as we walked into out room, we found a roach on the floor, my kids and I could not walk around the room barefoot because it was sticky, and i even found beer bottle caps under the table... not hidden but right there under the table. I went to the front desk and told them that we want to change our reservation from 3 nights to 1 night. We wanted to leave and cancel our stay but it was passed the cancellation time. The guy at the front got offended and said that he will not change it to one night. That I have to stay a minimum of two nights. I told him why i wanted to change my stay and he said that he will not change it to one night. My family and I were forced to pay for the 2 nights,  The next morning, we woke up for breakfast and were hated it. The Frosted Flakes were called "assorted flakes" which consisted of corn flakes, frosted flakes, honey nut cheerios, and some other cereal. It was sour tasting somehow. My son got one of the donuts and was so excited that they had donuts but they were stale and hard. An 8 year old said that they were the worst donuts ever. The milk was getting warm in the pot they had it sitting out in and the coffee was watery. I did address the issue with the staff but all he did was ask if it was too expensive instead of fixing the issue. After we checked out of our forced stay, I booked with another company that was not a Wyndham hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r386624097-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>386624097</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Horrible Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here on June 24, 2016, and this hotel was horrible. We arrived late (actually at 12:45 a.m. on June 25) and was treated horribly by the desk clerk. I stated when I made the reservation that it would be this late when I arrived and from the way they acted, they had already given my room away. I was placed in Room 310 and it is terrible. The water pressure was non existent, the blow dryer did not work and actually fell off the wall when I tried to turn it on. The bathroom had 1/4 of a roll of toilet paper and no extra, my daughter slept in one of the beds and I slept in the other and something bit her 3 times on the back during the night. 
+Breakfast was also the nastiest thing I have ever had. You had a choice of donuts (iced things with cereal stuck to them), bread for toast but you had to share the butter with everyone. They had one tub of margarine sitting there with a knife stuck in it for everyone to use, The cream cheese for a bagel was the same. There was no choice other than this. This was the worst place I have ever stayed and felt as if I was rushed out in the morning. I left at 9 a.m. and they were rushing me out the front door when check out was...We stayed here on June 24, 2016, and this hotel was horrible. We arrived late (actually at 12:45 a.m. on June 25) and was treated horribly by the desk clerk. I stated when I made the reservation that it would be this late when I arrived and from the way they acted, they had already given my room away. I was placed in Room 310 and it is terrible. The water pressure was non existent, the blow dryer did not work and actually fell off the wall when I tried to turn it on. The bathroom had 1/4 of a roll of toilet paper and no extra, my daughter slept in one of the beds and I slept in the other and something bit her 3 times on the back during the night. Breakfast was also the nastiest thing I have ever had. You had a choice of donuts (iced things with cereal stuck to them), bread for toast but you had to share the butter with everyone. They had one tub of margarine sitting there with a knife stuck in it for everyone to use, The cream cheese for a bagel was the same. There was no choice other than this. This was the worst place I have ever stayed and felt as if I was rushed out in the morning. I left at 9 a.m. and they were rushing me out the front door when check out was not until 11 a.m.I also have a military background and when I asked if they gave a military discount, he just laughed and said I got a cheap rate anyway at $79.99 for 2 people so no they weren't offering that to me. This motel is not one I will ever stay at again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on June 24, 2016, and this hotel was horrible. We arrived late (actually at 12:45 a.m. on June 25) and was treated horribly by the desk clerk. I stated when I made the reservation that it would be this late when I arrived and from the way they acted, they had already given my room away. I was placed in Room 310 and it is terrible. The water pressure was non existent, the blow dryer did not work and actually fell off the wall when I tried to turn it on. The bathroom had 1/4 of a roll of toilet paper and no extra, my daughter slept in one of the beds and I slept in the other and something bit her 3 times on the back during the night. 
+Breakfast was also the nastiest thing I have ever had. You had a choice of donuts (iced things with cereal stuck to them), bread for toast but you had to share the butter with everyone. They had one tub of margarine sitting there with a knife stuck in it for everyone to use, The cream cheese for a bagel was the same. There was no choice other than this. This was the worst place I have ever stayed and felt as if I was rushed out in the morning. I left at 9 a.m. and they were rushing me out the front door when check out was...We stayed here on June 24, 2016, and this hotel was horrible. We arrived late (actually at 12:45 a.m. on June 25) and was treated horribly by the desk clerk. I stated when I made the reservation that it would be this late when I arrived and from the way they acted, they had already given my room away. I was placed in Room 310 and it is terrible. The water pressure was non existent, the blow dryer did not work and actually fell off the wall when I tried to turn it on. The bathroom had 1/4 of a roll of toilet paper and no extra, my daughter slept in one of the beds and I slept in the other and something bit her 3 times on the back during the night. Breakfast was also the nastiest thing I have ever had. You had a choice of donuts (iced things with cereal stuck to them), bread for toast but you had to share the butter with everyone. They had one tub of margarine sitting there with a knife stuck in it for everyone to use, The cream cheese for a bagel was the same. There was no choice other than this. This was the worst place I have ever stayed and felt as if I was rushed out in the morning. I left at 9 a.m. and they were rushing me out the front door when check out was not until 11 a.m.I also have a military background and when I asked if they gave a military discount, he just laughed and said I got a cheap rate anyway at $79.99 for 2 people so no they weren't offering that to me. This motel is not one I will ever stay at again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r378444404-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>378444404</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>I have never witnessed a manager treating customers the way this man did.  He was blatantly rude and disrespectful. One guest had waited 3 hours in a hot room. When she came down to the front desk, the manager told her that the AC was working fine and that she would not get her money back since they used the room for 3 hours.  Another guest had a question and the manager yelled at him saying that he was very busy and did not have time for him...I was the only one there!  Room was ok, but the hotel was gross.  Spend an extra $25 and stay somewhere else.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r376906026-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>376906026</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Sucks</t>
+  </si>
+  <si>
+    <t>The people did not honor all my discount. Roaches ate my dinner the was in the refrigerator and I had just pulled it ou . Linens were burned in a nonsmoking room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r374578291-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>374578291</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r370435147-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>370435147</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Two Week Extended Stay</t>
+  </si>
+  <si>
+    <t>Stayed for two weeks starting March 27, 2016.  The staff was friendly and helpful.  The room was clean and comfortable.  The price was reasonable.  The hotel, like the area, had just suffered hail storm damage, and my room was on the hail struck side.  The damage did not negatively impact my stay.  The hotel is also pet friendly, and I did have my dog with me the entire time.  The local area is safe, and I routinely walked to local restaurants by myself.  I would return to the hotel.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r364674860-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>364674860</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Not Terrible for the price, but...</t>
+  </si>
+  <si>
+    <t>I stayed here with my family two weekends in a row during a trip through Texas. We were not impressed with our first stay, but not quite disappointed enough to cancel our reservation and try to find another hotel for the next weekend. I first chose this hotel because it was one of few in the area where the 5 of us could stay in one room for a decent rate. The staff wasn't rude, but just didn't seem friendly either. The room was clean (smelled clean, no bugs), but the bathroom light flickered and didn't always come on at full brightness, and you could tell the place hadn't been updated in a while. They had wifi (I didn't notice whether or not there was a charge for it), but it wasn't good enough to stream video. Their complimentary breakfast included coffee, juice, milk, toast, pastries, make-your-own waffles, and 2 unpredictable cereals. The first time we stayed the 2 available cereals were "assorted flakes" (a mix of 5 different sugary cereals) and "sorted flakes" (a mix of rice cereal and corn flakes). The second time they had 2 normal cereals (one sugary, one not) but I forget which. Between our two stays, the place was hit by hail, breaking all the windows on one side of the building. I asked to change rooms after seeing a sparkling bedspread from glass that wasn't cleaned up well, but the second room we...I stayed here with my family two weekends in a row during a trip through Texas. We were not impressed with our first stay, but not quite disappointed enough to cancel our reservation and try to find another hotel for the next weekend. I first chose this hotel because it was one of few in the area where the 5 of us could stay in one room for a decent rate. The staff wasn't rude, but just didn't seem friendly either. The room was clean (smelled clean, no bugs), but the bathroom light flickered and didn't always come on at full brightness, and you could tell the place hadn't been updated in a while. They had wifi (I didn't notice whether or not there was a charge for it), but it wasn't good enough to stream video. Their complimentary breakfast included coffee, juice, milk, toast, pastries, make-your-own waffles, and 2 unpredictable cereals. The first time we stayed the 2 available cereals were "assorted flakes" (a mix of 5 different sugary cereals) and "sorted flakes" (a mix of rice cereal and corn flakes). The second time they had 2 normal cereals (one sugary, one not) but I forget which. Between our two stays, the place was hit by hail, breaking all the windows on one side of the building. I asked to change rooms after seeing a sparkling bedspread from glass that wasn't cleaned up well, but the second room we saw checked out okay. Overall, I'd say it might be an okay place to stay for one night if you're not picky and want to save a little money, but I will not be staying here again myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my family two weekends in a row during a trip through Texas. We were not impressed with our first stay, but not quite disappointed enough to cancel our reservation and try to find another hotel for the next weekend. I first chose this hotel because it was one of few in the area where the 5 of us could stay in one room for a decent rate. The staff wasn't rude, but just didn't seem friendly either. The room was clean (smelled clean, no bugs), but the bathroom light flickered and didn't always come on at full brightness, and you could tell the place hadn't been updated in a while. They had wifi (I didn't notice whether or not there was a charge for it), but it wasn't good enough to stream video. Their complimentary breakfast included coffee, juice, milk, toast, pastries, make-your-own waffles, and 2 unpredictable cereals. The first time we stayed the 2 available cereals were "assorted flakes" (a mix of 5 different sugary cereals) and "sorted flakes" (a mix of rice cereal and corn flakes). The second time they had 2 normal cereals (one sugary, one not) but I forget which. Between our two stays, the place was hit by hail, breaking all the windows on one side of the building. I asked to change rooms after seeing a sparkling bedspread from glass that wasn't cleaned up well, but the second room we...I stayed here with my family two weekends in a row during a trip through Texas. We were not impressed with our first stay, but not quite disappointed enough to cancel our reservation and try to find another hotel for the next weekend. I first chose this hotel because it was one of few in the area where the 5 of us could stay in one room for a decent rate. The staff wasn't rude, but just didn't seem friendly either. The room was clean (smelled clean, no bugs), but the bathroom light flickered and didn't always come on at full brightness, and you could tell the place hadn't been updated in a while. They had wifi (I didn't notice whether or not there was a charge for it), but it wasn't good enough to stream video. Their complimentary breakfast included coffee, juice, milk, toast, pastries, make-your-own waffles, and 2 unpredictable cereals. The first time we stayed the 2 available cereals were "assorted flakes" (a mix of 5 different sugary cereals) and "sorted flakes" (a mix of rice cereal and corn flakes). The second time they had 2 normal cereals (one sugary, one not) but I forget which. Between our two stays, the place was hit by hail, breaking all the windows on one side of the building. I asked to change rooms after seeing a sparkling bedspread from glass that wasn't cleaned up well, but the second room we saw checked out okay. Overall, I'd say it might be an okay place to stay for one night if you're not picky and want to save a little money, but I will not be staying here again myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r360719412-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>360719412</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r351715994-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>351715994</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Rude people</t>
+  </si>
+  <si>
+    <t>The room was ok but the walls needed painting. So my friend and I woke up late and it was 11:21. Checkout was 11. While I was rushing my friend to get ready the cleaning lady came and knocked on door. I told her we are getting ready to leave and she holler through the door you must pay 10 dollars at front desk. She comes back 10 min later and says check out was at 11 you need to pay 10 dollars. So while I am going to elevator cleaning lady meet me again and mentions the 10 dollars. When the elevator opens a lady is on the elevator with a clipboard and said are you in room 334 do you have 10 dollars? I had it but they made me so mad I said no. When I get off the elevator the man at the desk yells why didn't you check out on time. I told him he need to talk to me better. He then says do I need to pepper you. I said did you just say you going to pepper spray me? Then he yells get out. I have never been to such a rude place in my life. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The room was ok but the walls needed painting. So my friend and I woke up late and it was 11:21. Checkout was 11. While I was rushing my friend to get ready the cleaning lady came and knocked on door. I told her we are getting ready to leave and she holler through the door you must pay 10 dollars at front desk. She comes back 10 min later and says check out was at 11 you need to pay 10 dollars. So while I am going to elevator cleaning lady meet me again and mentions the 10 dollars. When the elevator opens a lady is on the elevator with a clipboard and said are you in room 334 do you have 10 dollars? I had it but they made me so mad I said no. When I get off the elevator the man at the desk yells why didn't you check out on time. I told him he need to talk to me better. He then says do I need to pepper you. I said did you just say you going to pepper spray me? Then he yells get out. I have never been to such a rude place in my life. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r344406021-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>344406021</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>GM went above and beyond</t>
+  </si>
+  <si>
+    <t>Due to a death in the family, I recently needed lodging in the Plano area on short notice. My stay at the Super 8 Motel  was really  enjoyable.. and the kindness of the staff  there was the reason!  We had a smoking room, which was nice and hard to find these days, but the main reason for the high rating was the outstanding customer service of the GM, Nick Ismail and the rest of the staff there, a dying art in this day and age! Thank you to Nick an d  the  rest  of  the  staff  at Super  8 for making  a  difficult  situation  more  bearable  by simply  showing  a stranger  a bit  of  kindness in a time of need!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Due to a death in the family, I recently needed lodging in the Plano area on short notice. My stay at the Super 8 Motel  was really  enjoyable.. and the kindness of the staff  there was the reason!  We had a smoking room, which was nice and hard to find these days, but the main reason for the high rating was the outstanding customer service of the GM, Nick Ismail and the rest of the staff there, a dying art in this day and age! Thank you to Nick an d  the  rest  of  the  staff  at Super  8 for making  a  difficult  situation  more  bearable  by simply  showing  a stranger  a bit  of  kindness in a time of need!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r341524400-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>341524400</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Good enough to sleep but that is about it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was an OK spot just to sleep but I do not think the price was worth the stay. It is dated and run down. It is tolerable but for the condition the hotel is in, they should charge $50 tops for a double bed room. They allow dogs but there is a $25 additional fee. I only stayed there because I had my dog. I didn't shower, I just left the next morning and showered when I got to my final destination. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r330585912-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>330585912</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>well the sign outside says the room rate is 59.000 it was 79 plus tax and fees..i told them about the dogs at check in however they stopped me 3 hrs later and told me the dogs would be an extra fee...10 bucks he said I gave him 20 expecting change..nope he changed it to 20..then to top it off the room was full of cock roaches..I'll never return. and if anyone asks my opinion I'll tell them</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r320716160-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>320716160</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Stay was ok room was just a standard room with two double...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay was ok room was just a standard room with two double beds oneof the beds was broke, told clerk when we checked out, The room was in a good location for what we needed. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r317457485-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>317457485</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Horrible!!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel is a nightmare. I am a Wyndham rewards member and I've stayed at other super 8 motels that have been nice but this one is just awful. The people at reception were really rude. They tried to give me a room with 1 twin size bed when I paid for a kind size bed. After I changed the room I found small roaches in the room. There was a woman sitting at the front steps by the entrance for the whole day and upon asking the staff why she was there they instantly told me that she was homeless and I should buy her a room if I have a problem with it. Wyndham really needs to do something about this.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is a nightmare. I am a Wyndham rewards member and I've stayed at other super 8 motels that have been nice but this one is just awful. The people at reception were really rude. They tried to give me a room with 1 twin size bed when I paid for a kind size bed. After I changed the room I found small roaches in the room. There was a woman sitting at the front steps by the entrance for the whole day and upon asking the staff why she was there they instantly told me that she was homeless and I should buy her a room if I have a problem with it. Wyndham really needs to do something about this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r315710762-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>315710762</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was comfortable but front desk staff was more involved in what was obviously a personal phone call than registering us.  The breakfast room was inadequately Air conditioned so big fans were running.  The English muffin was so dry and old that it cracked when I picked it up to toast.  The OJ was good but we did not eat there.  Morning desk staff was pleasant. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r314569740-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>314569740</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>So Many Cockroaches</t>
+  </si>
+  <si>
+    <t>This hotel should be condemned. It is infested with cockroaches, the carpet is crunchy, and the health department certificate expired months ago.  Unless you have no other option, avoid this hotel!  It really is worth paying a few dollars more avoid the cockroaches.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r314551226-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>314551226</t>
+  </si>
+  <si>
+    <t>poor excuse for a motel</t>
+  </si>
+  <si>
+    <t>If you don't mind filth and cockroaches then you would like this place I have stayed in numerous Super 8 motels and never has this been an issue. there was roaches even in the refridgerator. The desk clerk</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r307367625-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>307367625</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>overcharged</t>
+  </si>
+  <si>
+    <t>the sign says $54 and they tell you they only have $64 rooms and the place is empty. what a scam</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r307079005-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>307079005</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Avoid this Super 8</t>
+  </si>
+  <si>
+    <t>Room in terrible condition with peeling ceiling, walls badly needing painting, very slippery bathtub with no plug, no counter in bathroom, just sink, trouble with toilet flushing all of the time, drapes constantly fly into room from the air cooler below it, bathroom floor and carpet so dirty that feet turn black if go barefoot. Where you hang clothes, there is a huge chair below the rack so cannot hang clothes properly and cannot use chair. Had to have room key rekeyed about 6 times because constantly didn't work.  Didn't get coffee packet in room three mornings in a row.  When asked housekeeper for coffee packets, she was apologetic and kind, providing me with the coffee. Stale breakfast cereal and sour milk (one morning only).  Was told that microwave and refrigerator were included in room but was charged $35. at checkout for microwave. Employee at front desk when checking out was rude and demeaning because I did not want to sign for the $35. charge.  Manager will not refund the $35., saying that when his employees  told me that the microwave was included in the room price, they didn't know what they were talking about.  The couple who manage the front desk most of the time were very helpful, changing a light bulb that was burned out and helping out however they could.   MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Room in terrible condition with peeling ceiling, walls badly needing painting, very slippery bathtub with no plug, no counter in bathroom, just sink, trouble with toilet flushing all of the time, drapes constantly fly into room from the air cooler below it, bathroom floor and carpet so dirty that feet turn black if go barefoot. Where you hang clothes, there is a huge chair below the rack so cannot hang clothes properly and cannot use chair. Had to have room key rekeyed about 6 times because constantly didn't work.  Didn't get coffee packet in room three mornings in a row.  When asked housekeeper for coffee packets, she was apologetic and kind, providing me with the coffee. Stale breakfast cereal and sour milk (one morning only).  Was told that microwave and refrigerator were included in room but was charged $35. at checkout for microwave. Employee at front desk when checking out was rude and demeaning because I did not want to sign for the $35. charge.  Manager will not refund the $35., saying that when his employees  told me that the microwave was included in the room price, they didn't know what they were talking about.  The couple who manage the front desk most of the time were very helpful, changing a light bulb that was burned out and helping out however they could.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r302678269-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>302678269</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Never coming back</t>
+  </si>
+  <si>
+    <t>Me and my husband had 4 days and 3 nights here. Our room had roaches and the toilet messed up. Our room keys stopped working multiple times. They switched our room and the next one wasn't any better. Infested with roaches as well, housekeeping didnt clean the room from the last guests until 7:00pm, we had to make our own bed when we switched rooms, and unclog the toilet in the previous room ourselves. Management was rude and completely uncaring to the fact that I am 6 months pregnant. They came in and sprayed strong chemicals while me and my husband were still in the room. Just horrible service all the way around. Housekeeping never came and gave us new towels when we let them know all the towels were dirty when we arrived. Never booking a room here ever again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my husband had 4 days and 3 nights here. Our room had roaches and the toilet messed up. Our room keys stopped working multiple times. They switched our room and the next one wasn't any better. Infested with roaches as well, housekeeping didnt clean the room from the last guests until 7:00pm, we had to make our own bed when we switched rooms, and unclog the toilet in the previous room ourselves. Management was rude and completely uncaring to the fact that I am 6 months pregnant. They came in and sprayed strong chemicals while me and my husband were still in the room. Just horrible service all the way around. Housekeeping never came and gave us new towels when we let them know all the towels were dirty when we arrived. Never booking a room here ever again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r295758684-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>295758684</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r295117334-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>295117334</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r291393728-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>291393728</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Not a good stay</t>
+  </si>
+  <si>
+    <t>We had a room that smelled bad!! and then we moved to another room and it had bugs and the bathroom had mold in the shower on the ceiling. my husband went to the car and a lady to the front desk she will be back in a few hours and the man she was with was checking out. So That one I will not stay aging.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r281960465-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>281960465</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r281008395-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>281008395</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Terrible customer service</t>
+  </si>
+  <si>
+    <t>My tv went out and they would do nothing to resolve the problem.When I told him it not working he lied to me and said everyone's tv was out.  I found roaches in my room and it smelled worse than a dive bar.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r280965122-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>280965122</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r278602852-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>278602852</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Smallest room in town.</t>
+  </si>
+  <si>
+    <t>The room was cramped i wanted a king size bed was given a full. The staff were nosey and demanding 10 dollars.even tried to charge my cc .for late checkout.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r278503904-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>278503904</t>
+  </si>
+  <si>
+    <t>Terrible Experience</t>
+  </si>
+  <si>
+    <t>We have stayed at several Super 8 locations across the country. This is the worst place we have stayed in the last 20+ years. The "free" breakfast was so disgusting we could not eat it. The service was almost as bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r275853271-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>275853271</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r265738212-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>265738212</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r262393463-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>262393463</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r259017002-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>259017002</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r257305781-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>257305781</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Horrific!</t>
+  </si>
+  <si>
+    <t>It had a working a/c unit.  That's the only good thing I can think of saying. The door knob was broken so every time we wanted in the front desk had to come let us in. The toilet didn't flush. The bed omg the bed was a mattress cover stuffed with bricks. Neither my husband nor I slept all night. I even tried sleeping in the one chair in the room . I think I would of slept better folded up like an accordion and shoved into my suitcase and pulled behind the car.  
+They have a huge sign flashing 49.99 and we paid over 60.00 bucks . The sign did coax us of the highway. Then they did the bait and switch. All I wanted was a comfy bed and a pillow with some stuffing left in it .   We had planned to sleep in this morning and were up at 6am just to get circulation back into our bodies.  On our way out we thought we would grab a bite of off the free breakfast bar. Toast it's basically toast and coffee. Again didn't expect much but could they have tossed me a frozen eggo for the road.  
+If u are the stealing kinda person don't think u are going to get away with the 1980s box analog 500lb 24 inch tv cuz they got that sucker bolted down and super 8 spray painted all over it. 
+Keep...It had a working a/c unit.  That's the only good thing I can think of saying. The door knob was broken so every time we wanted in the front desk had to come let us in. The toilet didn't flush. The bed omg the bed was a mattress cover stuffed with bricks. Neither my husband nor I slept all night. I even tried sleeping in the one chair in the room . I think I would of slept better folded up like an accordion and shoved into my suitcase and pulled behind the car.  They have a huge sign flashing 49.99 and we paid over 60.00 bucks . The sign did coax us of the highway. Then they did the bait and switch. All I wanted was a comfy bed and a pillow with some stuffing left in it .   We had planned to sleep in this morning and were up at 6am just to get circulation back into our bodies.  On our way out we thought we would grab a bite of off the free breakfast bar. Toast it's basically toast and coffee. Again didn't expect much but could they have tossed me a frozen eggo for the road.  If u are the stealing kinda person don't think u are going to get away with the 1980s box analog 500lb 24 inch tv cuz they got that sucker bolted down and super 8 spray painted all over it. Keep driving. Don't stop here! You have been warned!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>It had a working a/c unit.  That's the only good thing I can think of saying. The door knob was broken so every time we wanted in the front desk had to come let us in. The toilet didn't flush. The bed omg the bed was a mattress cover stuffed with bricks. Neither my husband nor I slept all night. I even tried sleeping in the one chair in the room . I think I would of slept better folded up like an accordion and shoved into my suitcase and pulled behind the car.  
+They have a huge sign flashing 49.99 and we paid over 60.00 bucks . The sign did coax us of the highway. Then they did the bait and switch. All I wanted was a comfy bed and a pillow with some stuffing left in it .   We had planned to sleep in this morning and were up at 6am just to get circulation back into our bodies.  On our way out we thought we would grab a bite of off the free breakfast bar. Toast it's basically toast and coffee. Again didn't expect much but could they have tossed me a frozen eggo for the road.  
+If u are the stealing kinda person don't think u are going to get away with the 1980s box analog 500lb 24 inch tv cuz they got that sucker bolted down and super 8 spray painted all over it. 
+Keep...It had a working a/c unit.  That's the only good thing I can think of saying. The door knob was broken so every time we wanted in the front desk had to come let us in. The toilet didn't flush. The bed omg the bed was a mattress cover stuffed with bricks. Neither my husband nor I slept all night. I even tried sleeping in the one chair in the room . I think I would of slept better folded up like an accordion and shoved into my suitcase and pulled behind the car.  They have a huge sign flashing 49.99 and we paid over 60.00 bucks . The sign did coax us of the highway. Then they did the bait and switch. All I wanted was a comfy bed and a pillow with some stuffing left in it .   We had planned to sleep in this morning and were up at 6am just to get circulation back into our bodies.  On our way out we thought we would grab a bite of off the free breakfast bar. Toast it's basically toast and coffee. Again didn't expect much but could they have tossed me a frozen eggo for the road.  If u are the stealing kinda person don't think u are going to get away with the 1980s box analog 500lb 24 inch tv cuz they got that sucker bolted down and super 8 spray painted all over it. Keep driving. Don't stop here! You have been warned!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r250565812-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>250565812</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Ill kept, old, and not very clean with bad bad management</t>
+  </si>
+  <si>
+    <t>The price was pretty cheap BUT, I had a room two doors away from the front desk and the manager repeatedly raked the front desk clerk over the coals about reading on the job. I do not think that English was their native tongue. They were both shouting and it finally ended in a draw since the clerk did not leave and the manager did leave. This is a good location very close to I-75 on the east frontage road. It is adjacent to a Denny's.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r250383118-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>250383118</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>My family was scared to stay here!</t>
+  </si>
+  <si>
+    <t>General location was good but the hotel is run-down, there were signs warning of theft, the hotel clerk barely spoke English, there was an unpleasant "wet" odor and they did not have my confirmation! Get this, the whole time I was trying to get a room I noticed a loud tone gong off behind the counter and I asked the clerk if that bothered her. She said, "I just learn to ignore it." It is part of the fire alarm system!!! I could not allow my family to stay in this horrible place. I ate the $70 (even though they couldn't find my reservation) and moved on to a real hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>General location was good but the hotel is run-down, there were signs warning of theft, the hotel clerk barely spoke English, there was an unpleasant "wet" odor and they did not have my confirmation! Get this, the whole time I was trying to get a room I noticed a loud tone gong off behind the counter and I asked the clerk if that bothered her. She said, "I just learn to ignore it." It is part of the fire alarm system!!! I could not allow my family to stay in this horrible place. I ate the $70 (even though they couldn't find my reservation) and moved on to a real hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r238175336-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>238175336</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r230861801-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>230861801</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Convenient and affordable</t>
+  </si>
+  <si>
+    <t>While not the height of luxury, this property has very nice proprietors.  The building itself could use a little attention.  There was trash in the parking lot and the only door allowed entrance was the front door.  This proved inconvenient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r221426819-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>221426819</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r207395255-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>207395255</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Unsatisfactory</t>
+  </si>
+  <si>
+    <t>Total price was to be $135.58 per confirmation(18456021), but was charged $146.88.  Due to a family emergency we had to heave the afternoon of 5/21/14 and did not stay that night.  I did not have time to argue with the desk clerk about the price, but instead planned to voice my complaint in this manner. The room was fairly clean, but thin, dingy towels were not appealing.  We were in Plano area for funeral service of a close friend and just wanted a clean room to sleep and bathe in, a basic room close to the area the family lived in.  Not only was it not in the area we needed to be, it was just not a good experience.  Other super 8's we have stayed in have been more pleasant than this one.  I expect to be credited the amount over the confirmed price.  The check in clerk was very nice, however the one at checkout was not at all nice or helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Total price was to be $135.58 per confirmation(18456021), but was charged $146.88.  Due to a family emergency we had to heave the afternoon of 5/21/14 and did not stay that night.  I did not have time to argue with the desk clerk about the price, but instead planned to voice my complaint in this manner. The room was fairly clean, but thin, dingy towels were not appealing.  We were in Plano area for funeral service of a close friend and just wanted a clean room to sleep and bathe in, a basic room close to the area the family lived in.  Not only was it not in the area we needed to be, it was just not a good experience.  Other super 8's we have stayed in have been more pleasant than this one.  I expect to be credited the amount over the confirmed price.  The check in clerk was very nice, however the one at checkout was not at all nice or helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r206113855-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>206113855</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r206086829-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>206086829</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r196115679-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>196115679</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>Andy is the best!  My family was in town for my aunt's 80th birthday. We had 5 rooms booked and he &amp; his staff handled us with ease.  We appreciate all your help.  The room was satisfactory for our needs.  My only complaint would be the towels.  It's time to buy new towels and/or use fabric softener because your towels are old &amp; rough.  The free WiFi was great, but we had to ask for the code. Overall our stay was very good.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r193698669-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>193698669</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r191057760-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>191057760</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r184460360-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>184460360</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>pretty nice place for the $</t>
+  </si>
+  <si>
+    <t>room was nice and had everything. wifi was good. I refused to let them make a copy of my credit card although I let them make a copy of my TDL. The carpets in the hallways and room need to be cleaned and vacuumed (??).</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r183634266-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>183634266</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r181830276-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>181830276</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r176772565-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>176772565</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Avoid this Super 8 location in Plano,Tx on I-75 exit-29 north</t>
+  </si>
+  <si>
+    <t>WARNING...Avoid this location..They want a copy of your drivers license and credit card or debit card,they make copies of both sides of your cards..WARNING at check out counter it says NO REFUNDS..The night manager was not exactly friendly..The lobby was hot..the hallways are hot,,the elevator is hot..The room was real hot on arrival..WARNING the breakfast is terrible..The donuts were as hard as bricks.Really wasn't anything there to eat,the bread was stale,the milk was sour and not on ice..The rack rate was too high even thou they say it's a deal..There are other hotels in the area.....The room was clean,microwave and refrigerator,flat tv,ironing and board,hair dryer..The place was clean outside and inside..Room was pretty bare in my opinion.This place needs to be reported to the main corporate office..Don't come to this Super 8 until a year or more passes...I even looked on google for reviews non were good but,I tried this place anyway..Mistake..MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>WARNING...Avoid this location..They want a copy of your drivers license and credit card or debit card,they make copies of both sides of your cards..WARNING at check out counter it says NO REFUNDS..The night manager was not exactly friendly..The lobby was hot..the hallways are hot,,the elevator is hot..The room was real hot on arrival..WARNING the breakfast is terrible..The donuts were as hard as bricks.Really wasn't anything there to eat,the bread was stale,the milk was sour and not on ice..The rack rate was too high even thou they say it's a deal..There are other hotels in the area.....The room was clean,microwave and refrigerator,flat tv,ironing and board,hair dryer..The place was clean outside and inside..Room was pretty bare in my opinion.This place needs to be reported to the main corporate office..Don't come to this Super 8 until a year or more passes...I even looked on google for reviews non were good but,I tried this place anyway..Mistake..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r170770193-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>170770193</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r169497317-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>169497317</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Be careful with your Identity</t>
+  </si>
+  <si>
+    <t>I was on a lone drive by myself and stopped for the night in Plano. It seems like a nice enough part of town and, what really grabbed me was that there was an In n Out Burger at the exit. I had originally been tracking the Motel 6, but after grabbing a burger at the drive thru, I drove to the 6. There was a few suspicious looking characters hanging over the second floor balcony as I drove in, so I drove through to the Super8 just up the road.
+If I hadn't already been in the hotel with my bags, I would have and should have left. Pulling in, I thought, "I hope that guy's saying goodbye to his daughter..."
+First the $49 room they have on the sign... the clerk says, "You don't want that. It's very small and not very good." So fine, I'll go for the "deluxe" $59/nt room. But I was very concerned when he printed a photocopy of my license &amp; credit card. I asked about this. He said, "A lot of be people deny that they stayed here. This is our proof." I asked him what happens to that print out and he didn't give me an answer. (The next day, I asked for this print out and the woman relucantly tore off the part with my card imprint.)
+Anyway... 
+It was also dirty. There was some sludge pile in the shower...I was on a lone drive by myself and stopped for the night in Plano. It seems like a nice enough part of town and, what really grabbed me was that there was an In n Out Burger at the exit. I had originally been tracking the Motel 6, but after grabbing a burger at the drive thru, I drove to the 6. There was a few suspicious looking characters hanging over the second floor balcony as I drove in, so I drove through to the Super8 just up the road.If I hadn't already been in the hotel with my bags, I would have and should have left. Pulling in, I thought, "I hope that guy's saying goodbye to his daughter..."First the $49 room they have on the sign... the clerk says, "You don't want that. It's very small and not very good." So fine, I'll go for the "deluxe" $59/nt room. But I was very concerned when he printed a photocopy of my license &amp; credit card. I asked about this. He said, "A lot of be people deny that they stayed here. This is our proof." I asked him what happens to that print out and he didn't give me an answer. (The next day, I asked for this print out and the woman relucantly tore off the part with my card imprint.)Anyway... It was also dirty. There was some sludge pile in the shower that I just had to avoid and not think about. It was loud. The a/c was turning off and on all night despite being on the "HIGH" selection.I got up early to finish my trip and found that the parking lot was empty at 7:30am, when it was fairly full at 10pm. Either everyone who stays here is an early-bird, or they were all hourly rentals... Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was on a lone drive by myself and stopped for the night in Plano. It seems like a nice enough part of town and, what really grabbed me was that there was an In n Out Burger at the exit. I had originally been tracking the Motel 6, but after grabbing a burger at the drive thru, I drove to the 6. There was a few suspicious looking characters hanging over the second floor balcony as I drove in, so I drove through to the Super8 just up the road.
+If I hadn't already been in the hotel with my bags, I would have and should have left. Pulling in, I thought, "I hope that guy's saying goodbye to his daughter..."
+First the $49 room they have on the sign... the clerk says, "You don't want that. It's very small and not very good." So fine, I'll go for the "deluxe" $59/nt room. But I was very concerned when he printed a photocopy of my license &amp; credit card. I asked about this. He said, "A lot of be people deny that they stayed here. This is our proof." I asked him what happens to that print out and he didn't give me an answer. (The next day, I asked for this print out and the woman relucantly tore off the part with my card imprint.)
+Anyway... 
+It was also dirty. There was some sludge pile in the shower...I was on a lone drive by myself and stopped for the night in Plano. It seems like a nice enough part of town and, what really grabbed me was that there was an In n Out Burger at the exit. I had originally been tracking the Motel 6, but after grabbing a burger at the drive thru, I drove to the 6. There was a few suspicious looking characters hanging over the second floor balcony as I drove in, so I drove through to the Super8 just up the road.If I hadn't already been in the hotel with my bags, I would have and should have left. Pulling in, I thought, "I hope that guy's saying goodbye to his daughter..."First the $49 room they have on the sign... the clerk says, "You don't want that. It's very small and not very good." So fine, I'll go for the "deluxe" $59/nt room. But I was very concerned when he printed a photocopy of my license &amp; credit card. I asked about this. He said, "A lot of be people deny that they stayed here. This is our proof." I asked him what happens to that print out and he didn't give me an answer. (The next day, I asked for this print out and the woman relucantly tore off the part with my card imprint.)Anyway... It was also dirty. There was some sludge pile in the shower that I just had to avoid and not think about. It was loud. The a/c was turning off and on all night despite being on the "HIGH" selection.I got up early to finish my trip and found that the parking lot was empty at 7:30am, when it was fairly full at 10pm. Either everyone who stays here is an early-bird, or they were all hourly rentals... Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r163626357-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>163626357</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r163585392-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>163585392</t>
+  </si>
+  <si>
+    <t>It was very nasty! My daughter and I went to get in bed...</t>
+  </si>
+  <si>
+    <t>It was very nasty! My daughter and I went to get in bed pulled the sheets back and there was blood on the sheets and there was mold in the bathroom!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r158720674-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>158720674</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>inexpensive, but substandard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost = bargain, but found motel room to be outdated and small and breakfast was a disappointment as it was coffee, juice, and white toast for mestaff was friendly </t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r146577596-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>146577596</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>super hotel</t>
+  </si>
+  <si>
+    <t>we have stayed in quite a few super 8 motels but by far this one is the best. the staff were genuinely friendly and helpful. our first room had a tv that didnt work and they could not have apologised more and gave us an upgraded room. the whole place was scrupulously clean and fresh. no finger marks anywhere, mirrors gleaming. close to anything you would want to go to. I was a bit unwell and the manager was so helpful and genuinely concerned.i would and will recommend this to anyone i know is going to the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>123Sonny, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded December 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2012</t>
+  </si>
+  <si>
+    <t>we have stayed in quite a few super 8 motels but by far this one is the best. the staff were genuinely friendly and helpful. our first room had a tv that didnt work and they could not have apologised more and gave us an upgraded room. the whole place was scrupulously clean and fresh. no finger marks anywhere, mirrors gleaming. close to anything you would want to go to. I was a bit unwell and the manager was so helpful and genuinely concerned.i would and will recommend this to anyone i know is going to the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r143567690-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>143567690</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r142752189-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>142752189</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r118909820-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>118909820</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>rating of hotel</t>
+  </si>
+  <si>
+    <t>We have stayed there the last 7 years for the oklahoma, texas football game, although the breakfast can be improved,, We have always found the staff to be very courteous and congenial, as well as helpful and the rooms clean,, other negative reports on here are from people i think just to create a stir,,, I have been in customer service field for 30 years and applaud their effort to accommodate.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>123Sonny, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded October 31, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2011</t>
+  </si>
+  <si>
+    <t>We have stayed there the last 7 years for the oklahoma, texas football game, although the breakfast can be improved,, We have always found the staff to be very courteous and congenial, as well as helpful and the rooms clean,, other negative reports on here are from people i think just to create a stir,,, I have been in customer service field for 30 years and applaud their effort to accommodate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r99559419-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>99559419</t>
+  </si>
+  <si>
+    <t>03/09/2011</t>
+  </si>
+  <si>
+    <t>Exceptionally good Super 8</t>
+  </si>
+  <si>
+    <t>This hotel is well located.  I didn't  feel well and decided to stay overnight.  I was able to check in at 2pm.  Service was quick, friendly.  This is not a new hotel but everything had been fixed up and is clean.  The best part was the bed!  This is the best matteress I've slept on in a hotel other than one of the upper-scale hotels (Westin, etc.).  Very quiet, also.  I didn't try the breakfast....was sleeping in, in the great bed.  There is a Denny's just down the street, and many restaurants  in this area.  I will definitely go back, especially at $54 for a king room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>SonnySuper8Plano, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded March 13, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2011</t>
+  </si>
+  <si>
+    <t>This hotel is well located.  I didn't  feel well and decided to stay overnight.  I was able to check in at 2pm.  Service was quick, friendly.  This is not a new hotel but everything had been fixed up and is clean.  The best part was the bed!  This is the best matteress I've slept on in a hotel other than one of the upper-scale hotels (Westin, etc.).  Very quiet, also.  I didn't try the breakfast....was sleeping in, in the great bed.  There is a Denny's just down the street, and many restaurants  in this area.  I will definitely go back, especially at $54 for a king room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r75532081-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>75532081</t>
+  </si>
+  <si>
+    <t>08/16/2010</t>
+  </si>
+  <si>
+    <t>what a dump and a crook</t>
+  </si>
+  <si>
+    <t>This hotel operator is a crook, He does not care, advertises one price and charges you more when you get there, rooms stink, they are dirty and ran down. When I seen the room i told him I would not stay and give me back my moneyback that I just paid him 5 minutes earlier, he told me no   I would have to contest on my credit card,  I was told if i dont like it leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>SonnySuper8Plano, Manager at Super 8 Plano/Dallas Area, responded to this reviewResponded December 1, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2010</t>
+  </si>
+  <si>
+    <t>This hotel operator is a crook, He does not care, advertises one price and charges you more when you get there, rooms stink, they are dirty and ran down. When I seen the room i told him I would not stay and give me back my moneyback that I just paid him 5 minutes earlier, he told me no   I would have to contest on my credit card,  I was told if i dont like it leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r32153955-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>32153955</t>
+  </si>
+  <si>
+    <t>06/11/2009</t>
+  </si>
+  <si>
+    <t>I like the place!</t>
+  </si>
+  <si>
+    <t>I have stayed at the Super 8 in Plano, TX at least 15+ times since March.  I have been working in the DFW area and when I stay in the same city I like to find a hotel to set up shop.  They have just recarpeted the hotel and I have never encountered any rude staff.  Sure there are some college age kids that run the desk at night and they might be a little more concerned with their iphone then being in hurry but not rude.  They have a ton of channels to watch (including the Golf Channel).  Bathrooms are clean and have good pressure, room 220 is a great room.  There are a ton of restaurants nearby including a mall.  Its easy to get on and off the highway.  I read the bad reviews and I disagree with them.  Chalk them up to having an off night at the hotel.  It is a very nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I have stayed at the Super 8 in Plano, TX at least 15+ times since March.  I have been working in the DFW area and when I stay in the same city I like to find a hotel to set up shop.  They have just recarpeted the hotel and I have never encountered any rude staff.  Sure there are some college age kids that run the desk at night and they might be a little more concerned with their iphone then being in hurry but not rude.  They have a ton of channels to watch (including the Golf Channel).  Bathrooms are clean and have good pressure, room 220 is a great room.  There are a ton of restaurants nearby including a mall.  Its easy to get on and off the highway.  I read the bad reviews and I disagree with them.  Chalk them up to having an off night at the hotel.  It is a very nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r20204299-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>20204299</t>
+  </si>
+  <si>
+    <t>09/19/2008</t>
+  </si>
+  <si>
+    <t>Looks Can Be Deceiving!</t>
+  </si>
+  <si>
+    <t>After a long trip, my family and I were relieved to finally arrive at the hotel.  Upon checking in, we were greeted by the friendly front-desk clerk (her manager was a bit less pleasant).  Anyhow, we checked in (reserved 3 rooms total) and viewed all rooms.  The rooms weren't the best, but they were livable.  Besides, we had both of our dogs with us (one of the perks about this hotel is that they take pets for a small daily fee).  To be honest, this hotel is a low-budget hotel.  There's no pool, the breakfast is very poor, and be careful b/c the elevator doesn't always work.  Boy, did I get my exercise going up and down to the 3rd floor--guess that made up for the fact that there is no fitness facility.  Two of my family member got stuck in the elevator for about 20 minutes.  I probably wouldn't stay there again if I were in the area, but if anyone does decide to lodge at Super 8 Plano, Tx, please be sure to have your Lysol.  Spray everything and I do mean everything, including the carpet!  Happy Lodging!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>After a long trip, my family and I were relieved to finally arrive at the hotel.  Upon checking in, we were greeted by the friendly front-desk clerk (her manager was a bit less pleasant).  Anyhow, we checked in (reserved 3 rooms total) and viewed all rooms.  The rooms weren't the best, but they were livable.  Besides, we had both of our dogs with us (one of the perks about this hotel is that they take pets for a small daily fee).  To be honest, this hotel is a low-budget hotel.  There's no pool, the breakfast is very poor, and be careful b/c the elevator doesn't always work.  Boy, did I get my exercise going up and down to the 3rd floor--guess that made up for the fact that there is no fitness facility.  Two of my family member got stuck in the elevator for about 20 minutes.  I probably wouldn't stay there again if I were in the area, but if anyone does decide to lodge at Super 8 Plano, Tx, please be sure to have your Lysol.  Spray everything and I do mean everything, including the carpet!  Happy Lodging!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r17223937-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>17223937</t>
+  </si>
+  <si>
+    <t>06/25/2008</t>
+  </si>
+  <si>
+    <t>rude staff</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 1 night. The rooms were barely acceptable.The front desk help were very rude and always watched as we came in and out. Like we were going to steal something. Not to worry, there is nothing there worth taking. Paid $75.00 a night. Would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 1 night. The rooms were barely acceptable.The front desk help were very rude and always watched as we came in and out. Like we were going to steal something. Not to worry, there is nothing there worth taking. Paid $75.00 a night. Would not stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2261,6188 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>131</v>
+      </c>
+      <c r="X15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>102</v>
+      </c>
+      <c r="X16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>156</v>
+      </c>
+      <c r="X17" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>207</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>228</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>228</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>228</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>241</v>
+      </c>
+      <c r="J35" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" t="s">
+        <v>243</v>
+      </c>
+      <c r="L35" t="s">
+        <v>244</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>245</v>
+      </c>
+      <c r="O35" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" t="s">
+        <v>251</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" t="s">
+        <v>257</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>261</v>
+      </c>
+      <c r="J38" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s">
+        <v>264</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>265</v>
+      </c>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>267</v>
+      </c>
+      <c r="J39" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" t="s">
+        <v>270</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>265</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>272</v>
+      </c>
+      <c r="J40" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>265</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s">
+        <v>278</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>279</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>287</v>
+      </c>
+      <c r="J43" t="s">
+        <v>288</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>279</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" t="s">
+        <v>291</v>
+      </c>
+      <c r="K44" t="s">
+        <v>292</v>
+      </c>
+      <c r="L44" t="s">
+        <v>293</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>294</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>297</v>
+      </c>
+      <c r="J45" t="s">
+        <v>298</v>
+      </c>
+      <c r="K45" t="s">
+        <v>299</v>
+      </c>
+      <c r="L45" t="s">
+        <v>300</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>301</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>304</v>
+      </c>
+      <c r="J46" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>301</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>309</v>
+      </c>
+      <c r="J47" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" t="s">
+        <v>311</v>
+      </c>
+      <c r="L47" t="s">
+        <v>312</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>130</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48" t="s">
+        <v>318</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" t="s">
+        <v>330</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" t="s">
+        <v>94</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K51" t="s">
+        <v>335</v>
+      </c>
+      <c r="L51" t="s">
+        <v>336</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>331</v>
+      </c>
+      <c r="O51" t="s">
+        <v>94</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>338</v>
+      </c>
+      <c r="J52" t="s">
+        <v>334</v>
+      </c>
+      <c r="K52" t="s">
+        <v>339</v>
+      </c>
+      <c r="L52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>331</v>
+      </c>
+      <c r="O52" t="s">
+        <v>130</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J53" t="s">
+        <v>343</v>
+      </c>
+      <c r="K53" t="s">
+        <v>344</v>
+      </c>
+      <c r="L53" t="s">
+        <v>345</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>331</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+      <c r="J54" t="s">
+        <v>348</v>
+      </c>
+      <c r="K54" t="s">
+        <v>349</v>
+      </c>
+      <c r="L54" t="s">
+        <v>350</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>351</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" t="s">
+        <v>355</v>
+      </c>
+      <c r="K55" t="s">
+        <v>356</v>
+      </c>
+      <c r="L55" t="s">
+        <v>357</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>351</v>
+      </c>
+      <c r="O55" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>360</v>
+      </c>
+      <c r="J56" t="s">
+        <v>361</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>362</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>363</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>364</v>
+      </c>
+      <c r="J57" t="s">
+        <v>365</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>362</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>366</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K58" t="s">
+        <v>369</v>
+      </c>
+      <c r="L58" t="s">
+        <v>370</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>362</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>371</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>372</v>
+      </c>
+      <c r="J59" t="s">
+        <v>373</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>374</v>
+      </c>
+      <c r="O59" t="s">
+        <v>130</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>375</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>376</v>
+      </c>
+      <c r="J60" t="s">
+        <v>377</v>
+      </c>
+      <c r="K60" t="s">
+        <v>378</v>
+      </c>
+      <c r="L60" t="s">
+        <v>379</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>380</v>
+      </c>
+      <c r="O60" t="s">
+        <v>130</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>381</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>382</v>
+      </c>
+      <c r="J61" t="s">
+        <v>377</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>374</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>383</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>384</v>
+      </c>
+      <c r="J62" t="s">
+        <v>385</v>
+      </c>
+      <c r="K62" t="s">
+        <v>386</v>
+      </c>
+      <c r="L62" t="s">
+        <v>387</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>374</v>
+      </c>
+      <c r="O62" t="s">
+        <v>94</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>389</v>
+      </c>
+      <c r="J63" t="s">
+        <v>385</v>
+      </c>
+      <c r="K63" t="s">
+        <v>390</v>
+      </c>
+      <c r="L63" t="s">
+        <v>391</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>380</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>392</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>393</v>
+      </c>
+      <c r="J64" t="s">
+        <v>394</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>380</v>
+      </c>
+      <c r="O64" t="s">
+        <v>130</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>395</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>396</v>
+      </c>
+      <c r="J65" t="s">
+        <v>397</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>398</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>399</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>400</v>
+      </c>
+      <c r="J66" t="s">
+        <v>401</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>402</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>403</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>404</v>
+      </c>
+      <c r="J67" t="s">
+        <v>405</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>402</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>407</v>
+      </c>
+      <c r="J68" t="s">
+        <v>408</v>
+      </c>
+      <c r="K68" t="s">
+        <v>409</v>
+      </c>
+      <c r="L68" t="s">
+        <v>410</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>411</v>
+      </c>
+      <c r="O68" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>413</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>414</v>
+      </c>
+      <c r="J69" t="s">
+        <v>415</v>
+      </c>
+      <c r="K69" t="s">
+        <v>416</v>
+      </c>
+      <c r="L69" t="s">
+        <v>417</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>418</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>419</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>420</v>
+      </c>
+      <c r="J70" t="s">
+        <v>421</v>
+      </c>
+      <c r="K70" t="s">
+        <v>422</v>
+      </c>
+      <c r="L70" t="s">
+        <v>423</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>411</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>425</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>426</v>
+      </c>
+      <c r="J71" t="s">
+        <v>427</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>428</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>430</v>
+      </c>
+      <c r="J72" t="s">
+        <v>431</v>
+      </c>
+      <c r="K72" t="s">
+        <v>432</v>
+      </c>
+      <c r="L72" t="s">
+        <v>433</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>418</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>434</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>435</v>
+      </c>
+      <c r="J73" t="s">
+        <v>436</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>437</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>438</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>439</v>
+      </c>
+      <c r="J74" t="s">
+        <v>440</v>
+      </c>
+      <c r="K74" t="s">
+        <v>441</v>
+      </c>
+      <c r="L74" t="s">
+        <v>442</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>443</v>
+      </c>
+      <c r="O74" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>445</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>446</v>
+      </c>
+      <c r="J75" t="s">
+        <v>447</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>443</v>
+      </c>
+      <c r="O75" t="s">
+        <v>130</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>448</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>449</v>
+      </c>
+      <c r="J76" t="s">
+        <v>447</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>443</v>
+      </c>
+      <c r="O76" t="s">
+        <v>94</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>450</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>451</v>
+      </c>
+      <c r="J77" t="s">
+        <v>452</v>
+      </c>
+      <c r="K77" t="s">
+        <v>453</v>
+      </c>
+      <c r="L77" t="s">
+        <v>454</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>455</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>456</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>457</v>
+      </c>
+      <c r="J78" t="s">
+        <v>458</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>455</v>
+      </c>
+      <c r="O78" t="s">
+        <v>94</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>459</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>460</v>
+      </c>
+      <c r="J79" t="s">
+        <v>461</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>462</v>
+      </c>
+      <c r="O79" t="s">
+        <v>94</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>463</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>464</v>
+      </c>
+      <c r="J80" t="s">
+        <v>465</v>
+      </c>
+      <c r="K80" t="s">
+        <v>466</v>
+      </c>
+      <c r="L80" t="s">
+        <v>467</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>468</v>
+      </c>
+      <c r="O80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>469</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>470</v>
+      </c>
+      <c r="J81" t="s">
+        <v>471</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>77</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>472</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>473</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>474</v>
+      </c>
+      <c r="J82" t="s">
+        <v>475</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>468</v>
+      </c>
+      <c r="O82" t="s">
+        <v>130</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>476</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>477</v>
+      </c>
+      <c r="J83" t="s">
+        <v>478</v>
+      </c>
+      <c r="K83" t="s">
+        <v>479</v>
+      </c>
+      <c r="L83" t="s">
+        <v>480</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>481</v>
+      </c>
+      <c r="O83" t="s">
+        <v>130</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>483</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>484</v>
+      </c>
+      <c r="J84" t="s">
+        <v>485</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>486</v>
+      </c>
+      <c r="O84" t="s">
+        <v>130</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>487</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>488</v>
+      </c>
+      <c r="J85" t="s">
+        <v>489</v>
+      </c>
+      <c r="K85" t="s">
+        <v>490</v>
+      </c>
+      <c r="L85" t="s">
+        <v>491</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>486</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>493</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>494</v>
+      </c>
+      <c r="J86" t="s">
+        <v>495</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>496</v>
+      </c>
+      <c r="O86" t="s">
+        <v>85</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>497</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>498</v>
+      </c>
+      <c r="J87" t="s">
+        <v>495</v>
+      </c>
+      <c r="K87" t="s">
+        <v>499</v>
+      </c>
+      <c r="L87" t="s">
+        <v>500</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>496</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>501</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>502</v>
+      </c>
+      <c r="J88" t="s">
+        <v>503</v>
+      </c>
+      <c r="K88" t="s">
+        <v>504</v>
+      </c>
+      <c r="L88" t="s">
+        <v>505</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>506</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>507</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>508</v>
+      </c>
+      <c r="J89" t="s">
+        <v>509</v>
+      </c>
+      <c r="K89" t="s">
+        <v>510</v>
+      </c>
+      <c r="L89" t="s">
+        <v>511</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>512</v>
+      </c>
+      <c r="O89" t="s">
+        <v>94</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>513</v>
+      </c>
+      <c r="X89" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>516</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>517</v>
+      </c>
+      <c r="J90" t="s">
+        <v>518</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s">
+        <v>77</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>519</v>
+      </c>
+      <c r="O90" t="s">
+        <v>130</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>513</v>
+      </c>
+      <c r="X90" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>520</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>521</v>
+      </c>
+      <c r="J91" t="s">
+        <v>522</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s">
+        <v>77</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>519</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>513</v>
+      </c>
+      <c r="X91" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>523</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>524</v>
+      </c>
+      <c r="J92" t="s">
+        <v>525</v>
+      </c>
+      <c r="K92" t="s">
+        <v>526</v>
+      </c>
+      <c r="L92" t="s">
+        <v>527</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>528</v>
+      </c>
+      <c r="O92" t="s">
+        <v>85</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>529</v>
+      </c>
+      <c r="X92" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>532</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>533</v>
+      </c>
+      <c r="J93" t="s">
+        <v>534</v>
+      </c>
+      <c r="K93" t="s">
+        <v>535</v>
+      </c>
+      <c r="L93" t="s">
+        <v>536</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>537</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>538</v>
+      </c>
+      <c r="X93" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>541</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>542</v>
+      </c>
+      <c r="J94" t="s">
+        <v>543</v>
+      </c>
+      <c r="K94" t="s">
+        <v>544</v>
+      </c>
+      <c r="L94" t="s">
+        <v>545</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>546</v>
+      </c>
+      <c r="O94" t="s">
+        <v>130</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>547</v>
+      </c>
+      <c r="X94" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>550</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>551</v>
+      </c>
+      <c r="J95" t="s">
+        <v>552</v>
+      </c>
+      <c r="K95" t="s">
+        <v>553</v>
+      </c>
+      <c r="L95" t="s">
+        <v>554</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>555</v>
+      </c>
+      <c r="O95" t="s">
+        <v>130</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>547</v>
+      </c>
+      <c r="X95" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>557</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>558</v>
+      </c>
+      <c r="J96" t="s">
+        <v>559</v>
+      </c>
+      <c r="K96" t="s">
+        <v>560</v>
+      </c>
+      <c r="L96" t="s">
+        <v>561</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>562</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>547</v>
+      </c>
+      <c r="X96" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>31536</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>564</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>565</v>
+      </c>
+      <c r="J97" t="s">
+        <v>566</v>
+      </c>
+      <c r="K97" t="s">
+        <v>567</v>
+      </c>
+      <c r="L97" t="s">
+        <v>568</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>569</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>547</v>
+      </c>
+      <c r="X97" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>570</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_746.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_746.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="667">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>carlanelson68</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>jed105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r573963881-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Marcus J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r573475374-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
   </si>
   <si>
     <t>Ready to come home now.. dallas was fun.. But me and my famies 1st night stay not so much... So Thursday me, my wife, 2yr old son n 3yr old daughter arrived in plano Tx to check into our reserved motel room The super 8 in plano tx. My wife picked the place for location and because of a complimentary breakfast (that i did not see). Friends and family this is Not the place you want to stay whenever you visit North TX. As you can see from the pictures, this 1st night a safe that the motel mounted into sheet rock in our room, fell out of the wall onto my sons foot. Seeing is that it was late in the day and the manager was not avail my wife emailed him and he emailed back basically distancing the hotel from any wrong doing.. The next morning while me and my family were packing to leave, i was searching for my kids travel cups, and noticed what looked like to be a seringe.. I flashed a picture of it, went to the lobby, spoke to a receptionist who was also unconcerned with anything guest related, and requested the manager come talk to me asap.. The manager Ismael came, looked me in my face with this blank stare, acting as if he was sympathetic to my situation, but could do nothing but give a discount on our next stay. Our...Ready to come home now.. dallas was fun.. But me and my famies 1st night stay not so much... So Thursday me, my wife, 2yr old son n 3yr old daughter arrived in plano Tx to check into our reserved motel room The super 8 in plano tx. My wife picked the place for location and because of a complimentary breakfast (that i did not see). Friends and family this is Not the place you want to stay whenever you visit North TX. As you can see from the pictures, this 1st night a safe that the motel mounted into sheet rock in our room, fell out of the wall onto my sons foot. Seeing is that it was late in the day and the manager was not avail my wife emailed him and he emailed back basically distancing the hotel from any wrong doing.. The next morning while me and my family were packing to leave, i was searching for my kids travel cups, and noticed what looked like to be a seringe.. I flashed a picture of it, went to the lobby, spoke to a receptionist who was also unconcerned with anything guest related, and requested the manager come talk to me asap.. The manager Ismael came, looked me in my face with this blank stare, acting as if he was sympathetic to my situation, but could do nothing but give a discount on our next stay. Our next stay? This guy had no clue. Before i even told my wife about the seringe i was just going to try and handle it (ie. Refund our 1 night) without her knowing about the seringe. After 5 or 6 unsuccessful attempts to resolve this situation, the manager ismael says he's going to call the police to come to our room because they deal with narcotics and they can get the meedle out of the rm.. And potentially traumatize my kids? Its as if the manager was saying i had the needle and i had the drugs, trying to scare me i guess. Anyway, the cops. Came talked to me, i showed them these same two pictures and then the manager says his wife advised he give half our $ (65) back. By that time this situation was uncontrollable and not negotiable. . sorry this message was uber long but everyone who travels with family and friends should know of this experience.More</t>
+  </si>
+  <si>
+    <t>capableengineer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r561386514-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
@@ -250,6 +262,9 @@
 Earlier this week, I stayed in a 1960’s era motel that was clearly built of cinder block walls, with textured wallpaper, and rusty fixtures in the...When staying in Plano, Texas, along Highway 75, you’d think that you’d find reasonable, fairly priced accommodations easily. Well, so I thought, when I decided on the “Sloppy 8” for a night’s stay. I wished I had researched it before plunking my CC down. At a $73 price point, the room included all the things you’d expect - and far less. The room itself was replete with fine decor touches, including ripped up walls in the corner, cheap and tawdry pressed wood furniture, a wonderfully small (26”?) TV, and lovely brass wall lamps, crookedly hung, but with clear plastic lampshade protectors. The plain paper printed note requesting “no tampering with the smoke detector” pinned to the wall was also a nice touch.The bathroom? Lush and inviting, with broken plaster all around the shower, a scratched sink, and the coup de grace - a stained small towel with a long black hair attached to it, neatly tucked into the towel rack. Exceptional.Finishing features included a sprinkler head in the ceiling hanging too low, and the hole stuffed with a paper towel. The corner ceiling lamp sitting cockeyed with one screw was also visually appealing. I refused to pull back anything more than the top cover to sleep, for fear of what I’d find.Earlier this week, I stayed in a 1960’s era motel that was clearly built of cinder block walls, with textured wallpaper, and rusty fixtures in the bathroom. At $63, it EXCELLED compared to this dump. The “family owners” here should be ashamed. It’s ugly, worn out, poorly maintained, and dirty. More</t>
   </si>
   <si>
+    <t>brucek828</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r557422418-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -274,6 +289,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>garrickg2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r556398035-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
     <t>Responded February 6, 2018</t>
   </si>
   <si>
+    <t>Z3565MUlindac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r547754529-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -316,6 +337,9 @@
     <t>Stated here last year. It was alright.  However, this time the floor was nasty. Not even vacuumed. The bed and bathroom we're alright. Also, the men who worked there made me feel uncomfortable.  Not friendly.More</t>
   </si>
   <si>
+    <t>GoodSoldier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r542983052-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -343,6 +367,9 @@
     <t>I really felt welcome and was treated very kindly. Also the rooms were nice and clean, not at all smelly. I've stayed here at Super 8 Motel  in Plano, Texas many times  and it's always been a good experience. More</t>
   </si>
   <si>
+    <t>N9926GSlindat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r536026828-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -361,6 +388,9 @@
     <t>Responded November 22, 2017</t>
   </si>
   <si>
+    <t>elisa s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r529260498-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -379,6 +409,9 @@
     <t>Extremely rude, unprofessional, run down, dingy don't waste your money. I paid for an extra night and requested 12:00pm late check out, by 1130 the front desk elderly man was banging on my door threatening to call the police if I didn't leave immidelty.  I was in the middle of a shower and tried explaining to him i had requested 12 check out instead of 11 normal and he didn't care to listen. Just kept yelling that I needed to get out now, was calling the police and money talks. COMPLETLY uncalled for, i was disgusted with the way this was handled, he didn't care to listen to me when I explained I had already requested just an hour over normal check out at 11. This is not how you treat people, if you don't mind being treated like garbage by all means stay here, if you want to be treated with dignity and respect avoid this hotel at all costs!!More</t>
   </si>
   <si>
+    <t>105baileyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r526412240-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -400,6 +433,9 @@
     <t>The clerk's find any reason to charge extra. On my first day the room was infested with roaches and the AC did not work. When I went to speak with the front desk about it I was told that I would have to wait to get another room 5 hours before check out. I was not happy about this nor did I get much sleep staying in the room. There were even Roaches on the bed. I came back to give this place another chance only to be charged extra for a room that I really did not need. When I told the gentleman at the front on my second night that I wanted to give my Wyndham Rewards number he told me that I would have to wait to get my receipt and manually enter the stay. I was also charged twice for the same day. The front desk could not find my original receipt for the original day that I came instead they just charged me twice for the same day. I was not happy about this and there really wasn't anything done to compensate me. In one of the rooms that I stayed in the fire alarm kept going off every minute on the minute and we had to get the maintenance man to come and fix it. In another room that I stayed the TV did not work so instead of moving us to a room...The clerk's find any reason to charge extra. On my first day the room was infested with roaches and the AC did not work. When I went to speak with the front desk about it I was told that I would have to wait to get another room 5 hours before check out. I was not happy about this nor did I get much sleep staying in the room. There were even Roaches on the bed. I came back to give this place another chance only to be charged extra for a room that I really did not need. When I told the gentleman at the front on my second night that I wanted to give my Wyndham Rewards number he told me that I would have to wait to get my receipt and manually enter the stay. I was also charged twice for the same day. The front desk could not find my original receipt for the original day that I came instead they just charged me twice for the same day. I was not happy about this and there really wasn't anything done to compensate me. In one of the rooms that I stayed in the fire alarm kept going off every minute on the minute and we had to get the maintenance man to come and fix it. In another room that I stayed the TV did not work so instead of moving us to a room with a normal TV the TV was replaced from something that look like it came out of the Museum of television set history. I don't think I had seen as TV like this in 10 years. Volume didn't work on the remote and everything had to be done manually. When staying on the second or third floor it was hard not to be taken aback by the blistering heat of the hallways. In another room the air conditioning unit kept making noises and I did not get any sleep at all when it came time to speak with the front desk about it the front desk guy said that he could come in and take a look at it or switch the room out it was 3 in the morning by the time this happened and I'm sure as you can imagine it would have been quite a hassle to pack everything up and moving to another room. Nothing not to mention I really don't like the idea of having the maintenance man and the front desk man coming in and out of my room all the time due to unsatisfactory living conditions. My Wyndham Rewards number was finally added to my account when I saw how easy it was for the front desk guy to do it I was very disappointed that the original front desk I couldn't just do it then and there he didn't have the patience to wait for me to provide him with my number. I found this to be extremely disrespectful and rude. I have become pretty loyal customer of this More</t>
   </si>
   <si>
+    <t>Paul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r516886523-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -430,6 +466,9 @@
     <t>Put employees here. Not again! Almost never got room cool. Hallways and lobby not kept cool at all. Front desk management not really friendly or helpful. Very disappointing. Even for price,  not again!More</t>
   </si>
   <si>
+    <t>Mheckard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r500466810-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -451,6 +490,9 @@
     <t>They need a crash course in running a business... the manager seemed to be the only one knowledgeable about anything going on there, however he was wasn't there much. Sometimes keeping things in the family isn't always profitable.More</t>
   </si>
   <si>
+    <t>alejandromH6951IA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r493304681-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -460,6 +502,9 @@
     <t>06/15/2017</t>
   </si>
   <si>
+    <t>J682QGsharonm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r491030098-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -481,6 +526,9 @@
     <t>I saw  three big roaches  in my room I told the front desk he said he would move me in the morning. Me and my  family check out. The carpet was very dirty , no breakfast, towels on a table in the lobby no soap in the room , room smell very bad. I will never stay here again nasty place every More</t>
   </si>
   <si>
+    <t>edwardcJ7039BW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r486397053-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -505,6 +553,9 @@
     <t>The location of the hotel and the price was reasonable, although Super 8 should invest in getting better Tv's than using the old school squared tv's. When having children or if anybody as myself who enjoy's playing his PS4 or watching Netflix, it would be better if having flat screen Tv's that automatically has the HDMI cord to the system. The toilet needed to be fix based on each time someone would flush it; it would go down slowly or the water would rise up as if it was stopped up. Also the knob on the faucet came off whenever you wanted to wash your hands which was very frustrating. More</t>
   </si>
   <si>
+    <t>Tammi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r485181635-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -523,6 +574,9 @@
     <t>No remote in the room had to ask for it they gave me one and sent maintenance staff seems fairly friendly but not real sure about the neighborhood or the folks hanging around the parking lot not making judgment against them. Not likely to recommend it for the price and kind of worried about my truck in the parking lot. The room is clean and the linens smell clean haven't been in this area for about 12 years and it seems to have changed. More</t>
   </si>
   <si>
+    <t>221jr2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r482674288-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -535,6 +589,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Kevin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r475824433-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -544,6 +601,9 @@
     <t>04/15/2017</t>
   </si>
   <si>
+    <t>H6769ISamyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r474682993-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -559,6 +619,9 @@
     <t>I will never stay here again!  I have video.  Window broke, cigarette burns in blankets, paint peeling, TV didn't work, AC unit squealed all night!  Never again...stay away!</t>
   </si>
   <si>
+    <t>jeremybA9193EB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r473838853-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -577,6 +640,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>tanishap635</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r472438307-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -592,6 +658,9 @@
     <t>Horrible, Lights didn't work, the phone wasn't connected. I was on the 4th floor next to the open room that they were using for storage. Elevator didn't work well. And the hotel had a stale smell to it. The desk clerk wasn't very helpful. The tub was busted in the floor, I could go on  and on with how terrible the stay was. I actually want a FULL REFUND! Horrible STAY EVER!!!!!!! Don't Stay HERE!!!!!!!</t>
   </si>
   <si>
+    <t>justinsL9574RI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r469364371-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -601,6 +670,9 @@
     <t>03/22/2017</t>
   </si>
   <si>
+    <t>Carrie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r469139316-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -616,6 +688,9 @@
     <t>Place is rundown, toilet rocked when you sat on it, causing you to hold on to counter, took shower and water was tepid.  The hotel added an extra charge to my card which I am still trying to find what it is for.</t>
   </si>
   <si>
+    <t>chumleyl2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r454612059-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -634,6 +709,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>jbsmba67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r439912792-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -652,6 +730,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>christopherhQ4443YN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r439536624-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -664,6 +745,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Brenda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r432467768-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -673,6 +757,9 @@
     <t>10/28/2016</t>
   </si>
   <si>
+    <t>Deborah196900</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r429835837-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -688,6 +775,9 @@
     <t>Seen manager argue with staff very loudly when I was checking in.I had to clean my own room !horrible house keeping!Breakfast was old donut's staff took for ever to send maintenance and when he did come he was rude as well ! Never again will I stay here</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r427639234-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -703,6 +793,9 @@
     <t>We had a ground floor room. It wasn't spacious, but it was comfortable and clean. Interior doors on the room add to security. Vending machines had a nice selection and reasonable prices. They don't use much AC on the inside hallways, but the room machines are well maintained and quiet. Easy success to major freeways with many places nearby to eat. Staff was friendly  and helpful. Keyed strongbox in the room is another nice touch.</t>
   </si>
   <si>
+    <t>680terryj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r407249630-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -715,6 +808,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>X8031MDjosephc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r406634470-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -730,6 +826,9 @@
     <t>The hotel lacked general cleanliness (old dirt was evident as well as roaches in the lobby meal area). The staff was generally unenthusiastic about their duties. The outside appearance is poorly maintained and it appears to have been vandalized (rocks throw at air conditioning units, the building walls, and a window was boarded up). The electrical plugs were worn to the point that the cord would just fall out of the plug, thus loosing power to the device. I intend to avoid this hotel in the future.</t>
   </si>
   <si>
+    <t>Willaim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r406339806-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -746,6 +845,9 @@
   </si>
   <si>
     <t>Those are the only good things I can say about this Super8.  Arriving, the building is still suffering from a severe hail storm several months ago.  A/C unit covers shredded, boarded windows, splotchy paint.  The lobby is dark and hot.  1990's carpet &amp; furniture.  Halls are dark and hot, casino carpeting.  The strong, strong smell of cleaning products permeates everything.  At one point we considering leaving simply because of the stench.  The hostess was ready to take, offered nothing other than the obligatory info.  Did I mention the places stinks of cleaning products??  Would recommend Wyndham and Super 8 remove their signage from this substandard facility.  Coffee maker didn't work, no strainer in sink.  Electrical outlets may be dangerous, I had to unplug microwave to plug in my CPAP (had to use all of a 10 ft. cord to get to that outlet)  Did I forget to say the place reeks?!?!More</t>
+  </si>
+  <si>
+    <t>Susie S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r395838713-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
@@ -775,6 +877,9 @@
 I hope someone...As soon as we walked in the lobby I had my doubts about the hotel.  The lobby had a STRONG chemical odor.  I thought to myself "maybe the room won't smell like this".  I walked in our room &amp; I couldn't believe this place was a Super 8.  The carpet was dirty, I found a dead roach, the chemical smell was evident in the room.  The walls had dirty hand prints on it.  EVERYTHING was outdated.  My father is an asthmatic, the chemical smell induced  an asthma attack, I had to take him to a local hospital.  After my father was ok, I left him at the hospital.  Obviously we could not stay there, I informed front desk we could not stay there &amp; would like a refund.  The guy said call back later to speak to manager, since he was the only one to give refunds.  I got tired of calling, every time I called front desk they always said "call back later he should be in office then".  FINALLY I got tired &amp; went to visit the manager, Nic.  Nic was very defensive told me I "should've stayed at the Marriott " &amp; would not give me a refund but he did cancel the 2nd night reservation.  I told him this Super 8 was a dump &amp;I was going to notify Super 8 &amp; complain.  He started to shout at me.  I just walked out.I hope someone from this district Super 8 headquarters does a surprise inspection on this dump &amp; remove the Super 8 logo because his Super 8 does not represent Super 8!!!!More</t>
   </si>
   <si>
+    <t>Sergio T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r394063025-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -791,6 +896,9 @@
   </si>
   <si>
     <t>My wife and I stayed at this hotel with my children and I will never stay at a Super 8 again. I had booked the hotel for 3 nights and as soon as we walked in, We were not happy with the hotel. We decided to give the hotel a chance and got our room. As soon as we walked into out room, we found a roach on the floor, my kids and I could not walk around the room barefoot because it was sticky, and i even found beer bottle caps under the table... not hidden but right there under the table. I went to the front desk and told them that we want to change our reservation from 3 nights to 1 night. We wanted to leave and cancel our stay but it was passed the cancellation time. The guy at the front got offended and said that he will not change it to one night. That I have to stay a minimum of two nights. I told him why i wanted to change my stay and he said that he will not change it to one night. My family and I were forced to pay for the 2 nights,  The next morning, we woke up for breakfast and were hated it. The Frosted Flakes were called "assorted flakes" which consisted of corn flakes, frosted flakes, honey nut cheerios, and some other cereal. It was sour tasting somehow....My wife and I stayed at this hotel with my children and I will never stay at a Super 8 again. I had booked the hotel for 3 nights and as soon as we walked in, We were not happy with the hotel. We decided to give the hotel a chance and got our room. As soon as we walked into out room, we found a roach on the floor, my kids and I could not walk around the room barefoot because it was sticky, and i even found beer bottle caps under the table... not hidden but right there under the table. I went to the front desk and told them that we want to change our reservation from 3 nights to 1 night. We wanted to leave and cancel our stay but it was passed the cancellation time. The guy at the front got offended and said that he will not change it to one night. That I have to stay a minimum of two nights. I told him why i wanted to change my stay and he said that he will not change it to one night. My family and I were forced to pay for the 2 nights,  The next morning, we woke up for breakfast and were hated it. The Frosted Flakes were called "assorted flakes" which consisted of corn flakes, frosted flakes, honey nut cheerios, and some other cereal. It was sour tasting somehow. My son got one of the donuts and was so excited that they had donuts but they were stale and hard. An 8 year old said that they were the worst donuts ever. The milk was getting warm in the pot they had it sitting out in and the coffee was watery. I did address the issue with the staff but all he did was ask if it was too expensive instead of fixing the issue. After we checked out of our forced stay, I booked with another company that was not a Wyndham hotel. More</t>
+  </si>
+  <si>
+    <t>Angela B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r386624097-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
@@ -816,6 +924,9 @@
 Breakfast was also the nastiest thing I have ever had. You had a choice of donuts (iced things with cereal stuck to them), bread for toast but you had to share the butter with everyone. They had one tub of margarine sitting there with a knife stuck in it for everyone to use, The cream cheese for a bagel was the same. There was no choice other than this. This was the worst place I have ever stayed and felt as if I was rushed out in the morning. I left at 9 a.m. and they were rushing me out the front door when check out was...We stayed here on June 24, 2016, and this hotel was horrible. We arrived late (actually at 12:45 a.m. on June 25) and was treated horribly by the desk clerk. I stated when I made the reservation that it would be this late when I arrived and from the way they acted, they had already given my room away. I was placed in Room 310 and it is terrible. The water pressure was non existent, the blow dryer did not work and actually fell off the wall when I tried to turn it on. The bathroom had 1/4 of a roll of toilet paper and no extra, my daughter slept in one of the beds and I slept in the other and something bit her 3 times on the back during the night. Breakfast was also the nastiest thing I have ever had. You had a choice of donuts (iced things with cereal stuck to them), bread for toast but you had to share the butter with everyone. They had one tub of margarine sitting there with a knife stuck in it for everyone to use, The cream cheese for a bagel was the same. There was no choice other than this. This was the worst place I have ever stayed and felt as if I was rushed out in the morning. I left at 9 a.m. and they were rushing me out the front door when check out was not until 11 a.m.I also have a military background and when I asked if they gave a military discount, he just laughed and said I got a cheap rate anyway at $79.99 for 2 people so no they weren't offering that to me. This motel is not one I will ever stay at again.More</t>
   </si>
   <si>
+    <t>Debby R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r378444404-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -834,6 +945,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Julian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r376906026-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -849,6 +963,9 @@
     <t>The people did not honor all my discount. Roaches ate my dinner the was in the refrigerator and I had just pulled it ou . Linens were burned in a nonsmoking room.</t>
   </si>
   <si>
+    <t>GameChanger145</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r374578291-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -858,6 +975,9 @@
     <t>05/19/2016</t>
   </si>
   <si>
+    <t>Mail3616</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r370435147-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -876,6 +996,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Kathy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r364674860-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1017,9 @@
     <t>I stayed here with my family two weekends in a row during a trip through Texas. We were not impressed with our first stay, but not quite disappointed enough to cancel our reservation and try to find another hotel for the next weekend. I first chose this hotel because it was one of few in the area where the 5 of us could stay in one room for a decent rate. The staff wasn't rude, but just didn't seem friendly either. The room was clean (smelled clean, no bugs), but the bathroom light flickered and didn't always come on at full brightness, and you could tell the place hadn't been updated in a while. They had wifi (I didn't notice whether or not there was a charge for it), but it wasn't good enough to stream video. Their complimentary breakfast included coffee, juice, milk, toast, pastries, make-your-own waffles, and 2 unpredictable cereals. The first time we stayed the 2 available cereals were "assorted flakes" (a mix of 5 different sugary cereals) and "sorted flakes" (a mix of rice cereal and corn flakes). The second time they had 2 normal cereals (one sugary, one not) but I forget which. Between our two stays, the place was hit by hail, breaking all the windows on one side of the building. I asked to change rooms after seeing a sparkling bedspread from glass that wasn't cleaned up well, but the second room we...I stayed here with my family two weekends in a row during a trip through Texas. We were not impressed with our first stay, but not quite disappointed enough to cancel our reservation and try to find another hotel for the next weekend. I first chose this hotel because it was one of few in the area where the 5 of us could stay in one room for a decent rate. The staff wasn't rude, but just didn't seem friendly either. The room was clean (smelled clean, no bugs), but the bathroom light flickered and didn't always come on at full brightness, and you could tell the place hadn't been updated in a while. They had wifi (I didn't notice whether or not there was a charge for it), but it wasn't good enough to stream video. Their complimentary breakfast included coffee, juice, milk, toast, pastries, make-your-own waffles, and 2 unpredictable cereals. The first time we stayed the 2 available cereals were "assorted flakes" (a mix of 5 different sugary cereals) and "sorted flakes" (a mix of rice cereal and corn flakes). The second time they had 2 normal cereals (one sugary, one not) but I forget which. Between our two stays, the place was hit by hail, breaking all the windows on one side of the building. I asked to change rooms after seeing a sparkling bedspread from glass that wasn't cleaned up well, but the second room we saw checked out okay. Overall, I'd say it might be an okay place to stay for one night if you're not picky and want to save a little money, but I will not be staying here again myself.More</t>
   </si>
   <si>
+    <t>douglasc144</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r360719412-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1029,9 @@
     <t>04/01/2016</t>
   </si>
   <si>
+    <t>NayNay1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r351715994-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1053,9 @@
     <t>The room was ok but the walls needed painting. So my friend and I woke up late and it was 11:21. Checkout was 11. While I was rushing my friend to get ready the cleaning lady came and knocked on door. I told her we are getting ready to leave and she holler through the door you must pay 10 dollars at front desk. She comes back 10 min later and says check out was at 11 you need to pay 10 dollars. So while I am going to elevator cleaning lady meet me again and mentions the 10 dollars. When the elevator opens a lady is on the elevator with a clipboard and said are you in room 334 do you have 10 dollars? I had it but they made me so mad I said no. When I get off the elevator the man at the desk yells why didn't you check out on time. I told him he need to talk to me better. He then says do I need to pepper you. I said did you just say you going to pepper spray me? Then he yells get out. I have never been to such a rude place in my life. More</t>
   </si>
   <si>
+    <t>LeslieD19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r344406021-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1077,9 @@
     <t>Due to a death in the family, I recently needed lodging in the Plano area on short notice. My stay at the Super 8 Motel  was really  enjoyable.. and the kindness of the staff  there was the reason!  We had a smoking room, which was nice and hard to find these days, but the main reason for the high rating was the outstanding customer service of the GM, Nick Ismail and the rest of the staff there, a dying art in this day and age! Thank you to Nick an d  the  rest  of  the  staff  at Super  8 for making  a  difficult  situation  more  bearable  by simply  showing  a stranger  a bit  of  kindness in a time of need!More</t>
   </si>
   <si>
+    <t>lalenaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r341524400-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1095,9 @@
     <t xml:space="preserve">It was an OK spot just to sleep but I do not think the price was worth the stay. It is dated and run down. It is tolerable but for the condition the hotel is in, they should charge $50 tops for a double bed room. They allow dogs but there is a $25 additional fee. I only stayed there because I had my dog. I didn't shower, I just left the next morning and showered when I got to my final destination. </t>
   </si>
   <si>
+    <t>Johnson B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r330585912-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1116,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>ReneeMendez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r320716160-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1137,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Faiyaz R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r317457485-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1158,9 @@
     <t>This hotel is a nightmare. I am a Wyndham rewards member and I've stayed at other super 8 motels that have been nice but this one is just awful. The people at reception were really rude. They tried to give me a room with 1 twin size bed when I paid for a kind size bed. After I changed the room I found small roaches in the room. There was a woman sitting at the front steps by the entrance for the whole day and upon asking the staff why she was there they instantly told me that she was homeless and I should buy her a room if I have a problem with it. Wyndham really needs to do something about this.More</t>
   </si>
   <si>
+    <t>joanandchuck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r315710762-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1179,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Ryan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r314569740-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1197,9 @@
     <t>This hotel should be condemned. It is infested with cockroaches, the carpet is crunchy, and the health department certificate expired months ago.  Unless you have no other option, avoid this hotel!  It really is worth paying a few dollars more avoid the cockroaches.</t>
   </si>
   <si>
+    <t>Woody L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r314551226-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1212,9 @@
     <t>If you don't mind filth and cockroaches then you would like this place I have stayed in numerous Super 8 motels and never has this been an issue. there was roaches even in the refridgerator. The desk clerk</t>
   </si>
   <si>
+    <t>140geraldb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r307367625-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1230,9 @@
     <t>the sign says $54 and they tell you they only have $64 rooms and the place is empty. what a scam</t>
   </si>
   <si>
+    <t>Cheryl S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r307079005-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1254,9 @@
     <t>Room in terrible condition with peeling ceiling, walls badly needing painting, very slippery bathtub with no plug, no counter in bathroom, just sink, trouble with toilet flushing all of the time, drapes constantly fly into room from the air cooler below it, bathroom floor and carpet so dirty that feet turn black if go barefoot. Where you hang clothes, there is a huge chair below the rack so cannot hang clothes properly and cannot use chair. Had to have room key rekeyed about 6 times because constantly didn't work.  Didn't get coffee packet in room three mornings in a row.  When asked housekeeper for coffee packets, she was apologetic and kind, providing me with the coffee. Stale breakfast cereal and sour milk (one morning only).  Was told that microwave and refrigerator were included in room but was charged $35. at checkout for microwave. Employee at front desk when checking out was rude and demeaning because I did not want to sign for the $35. charge.  Manager will not refund the $35., saying that when his employees  told me that the microwave was included in the room price, they didn't know what they were talking about.  The couple who manage the front desk most of the time were very helpful, changing a light bulb that was burned out and helping out however they could.   More</t>
   </si>
   <si>
+    <t>Shaquilla H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r302678269-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1275,9 @@
     <t>Me and my husband had 4 days and 3 nights here. Our room had roaches and the toilet messed up. Our room keys stopped working multiple times. They switched our room and the next one wasn't any better. Infested with roaches as well, housekeeping didnt clean the room from the last guests until 7:00pm, we had to make our own bed when we switched rooms, and unclog the toilet in the previous room ourselves. Management was rude and completely uncaring to the fact that I am 6 months pregnant. They came in and sprayed strong chemicals while me and my husband were still in the room. Just horrible service all the way around. Housekeeping never came and gave us new towels when we let them know all the towels were dirty when we arrived. Never booking a room here ever again. More</t>
   </si>
   <si>
+    <t>TomHFromTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r295758684-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1290,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>182campbellk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r295117334-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1302,9 @@
     <t>08/02/2015</t>
   </si>
   <si>
+    <t>M6746GSkar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r291393728-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1149,6 +1320,9 @@
     <t>We had a room that smelled bad!! and then we moved to another room and it had bugs and the bathroom had mold in the shower on the ceiling. my husband went to the car and a lady to the front desk she will be back in a few hours and the man she was with was checking out. So That one I will not stay aging.</t>
   </si>
   <si>
+    <t>189cami</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r281960465-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1335,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Wade A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r281008395-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1179,12 +1356,18 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Chris R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r280965122-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
     <t>280965122</t>
   </si>
   <si>
+    <t>M4419OLgabrielg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r278602852-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1383,9 @@
     <t>The room was cramped i wanted a king size bed was given a full. The staff were nosey and demanding 10 dollars.even tried to charge my cc .for late checkout.</t>
   </si>
   <si>
+    <t>robertgQ2770VM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r278503904-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1398,9 @@
     <t>We have stayed at several Super 8 locations across the country. This is the worst place we have stayed in the last 20+ years. The "free" breakfast was so disgusting we could not eat it. The service was almost as bad.</t>
   </si>
   <si>
+    <t>Juanita L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r275853271-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1410,9 @@
     <t>05/30/2015</t>
   </si>
   <si>
+    <t>Dorothy O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r265738212-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1425,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>William P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r262393463-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1440,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Lori A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r259017002-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1450,9 @@
   </si>
   <si>
     <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Elizabeth N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r257305781-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
@@ -1281,6 +1482,9 @@
 Keep...It had a working a/c unit.  That's the only good thing I can think of saying. The door knob was broken so every time we wanted in the front desk had to come let us in. The toilet didn't flush. The bed omg the bed was a mattress cover stuffed with bricks. Neither my husband nor I slept all night. I even tried sleeping in the one chair in the room . I think I would of slept better folded up like an accordion and shoved into my suitcase and pulled behind the car.  They have a huge sign flashing 49.99 and we paid over 60.00 bucks . The sign did coax us of the highway. Then they did the bait and switch. All I wanted was a comfy bed and a pillow with some stuffing left in it .   We had planned to sleep in this morning and were up at 6am just to get circulation back into our bodies.  On our way out we thought we would grab a bite of off the free breakfast bar. Toast it's basically toast and coffee. Again didn't expect much but could they have tossed me a frozen eggo for the road.  If u are the stealing kinda person don't think u are going to get away with the 1980s box analog 500lb 24 inch tv cuz they got that sucker bolted down and super 8 spray painted all over it. Keep driving. Don't stop here! You have been warned!More</t>
   </si>
   <si>
+    <t>jdalerose1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r250565812-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1503,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>4Frisco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r250383118-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1524,9 @@
     <t>General location was good but the hotel is run-down, there were signs warning of theft, the hotel clerk barely spoke English, there was an unpleasant "wet" odor and they did not have my confirmation! Get this, the whole time I was trying to get a room I noticed a loud tone gong off behind the counter and I asked the clerk if that bothered her. She said, "I just learn to ignore it." It is part of the fire alarm system!!! I could not allow my family to stay in this horrible place. I ate the $70 (even though they couldn't find my reservation) and moved on to a real hotel.More</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r238175336-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1539,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Danelle T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r230861801-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1557,9 @@
     <t>While not the height of luxury, this property has very nice proprietors.  The building itself could use a little attention.  There was trash in the parking lot and the only door allowed entrance was the front door.  This proved inconvenient.</t>
   </si>
   <si>
+    <t>Jan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r221426819-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1572,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Carolyn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r207395255-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1596,9 @@
     <t>Total price was to be $135.58 per confirmation(18456021), but was charged $146.88.  Due to a family emergency we had to heave the afternoon of 5/21/14 and did not stay that night.  I did not have time to argue with the desk clerk about the price, but instead planned to voice my complaint in this manner. The room was fairly clean, but thin, dingy towels were not appealing.  We were in Plano area for funeral service of a close friend and just wanted a clean room to sleep and bathe in, a basic room close to the area the family lived in.  Not only was it not in the area we needed to be, it was just not a good experience.  Other super 8's we have stayed in have been more pleasant than this one.  I expect to be credited the amount over the confirmed price.  The check in clerk was very nice, however the one at checkout was not at all nice or helpful. More</t>
   </si>
   <si>
+    <t>Brad B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r206113855-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1386,12 +1608,18 @@
     <t>05/18/2014</t>
   </si>
   <si>
+    <t>Patricia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r206086829-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
     <t>206086829</t>
   </si>
   <si>
+    <t>p4s90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r196115679-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1410,6 +1638,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Janice C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r193698669-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1650,9 @@
     <t>02/10/2014</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r191057760-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1665,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>hubert k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r184460360-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1686,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r183634266-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1701,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Brown K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r181830276-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1713,9 @@
     <t>10/21/2013</t>
   </si>
   <si>
+    <t>Matthew S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r176772565-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1737,9 @@
     <t>WARNING...Avoid this location..They want a copy of your drivers license and credit card or debit card,they make copies of both sides of your cards..WARNING at check out counter it says NO REFUNDS..The night manager was not exactly friendly..The lobby was hot..the hallways are hot,,the elevator is hot..The room was real hot on arrival..WARNING the breakfast is terrible..The donuts were as hard as bricks.Really wasn't anything there to eat,the bread was stale,the milk was sour and not on ice..The rack rate was too high even thou they say it's a deal..There are other hotels in the area.....The room was clean,microwave and refrigerator,flat tv,ironing and board,hair dryer..The place was clean outside and inside..Room was pretty bare in my opinion.This place needs to be reported to the main corporate office..Don't come to this Super 8 until a year or more passes...I even looked on google for reviews non were good but,I tried this place anyway..Mistake..More</t>
   </si>
   <si>
+    <t>Gari L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r170770193-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1501,6 +1750,9 @@
   </si>
   <si>
     <t>July 2013</t>
+  </si>
+  <si>
+    <t>Asksimonwhy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r169497317-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
@@ -1529,6 +1781,9 @@
 It was also dirty. There was some sludge pile in the shower...I was on a lone drive by myself and stopped for the night in Plano. It seems like a nice enough part of town and, what really grabbed me was that there was an In n Out Burger at the exit. I had originally been tracking the Motel 6, but after grabbing a burger at the drive thru, I drove to the 6. There was a few suspicious looking characters hanging over the second floor balcony as I drove in, so I drove through to the Super8 just up the road.If I hadn't already been in the hotel with my bags, I would have and should have left. Pulling in, I thought, "I hope that guy's saying goodbye to his daughter..."First the $49 room they have on the sign... the clerk says, "You don't want that. It's very small and not very good." So fine, I'll go for the "deluxe" $59/nt room. But I was very concerned when he printed a photocopy of my license &amp; credit card. I asked about this. He said, "A lot of be people deny that they stayed here. This is our proof." I asked him what happens to that print out and he didn't give me an answer. (The next day, I asked for this print out and the woman relucantly tore off the part with my card imprint.)Anyway... It was also dirty. There was some sludge pile in the shower that I just had to avoid and not think about. It was loud. The a/c was turning off and on all night despite being on the "HIGH" selection.I got up early to finish my trip and found that the parking lot was empty at 7:30am, when it was fairly full at 10pm. Either everyone who stays here is an early-bird, or they were all hourly rentals... Never again.More</t>
   </si>
   <si>
+    <t>Brd R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r163626357-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1541,6 +1796,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Jennifer F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r163585392-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1553,6 +1811,9 @@
     <t>It was very nasty! My daughter and I went to get in bed pulled the sheets back and there was blood on the sheets and there was mold in the bathroom!</t>
   </si>
   <si>
+    <t>Jane T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r158720674-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1832,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>alibee114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r146577596-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1598,6 +1862,9 @@
     <t>we have stayed in quite a few super 8 motels but by far this one is the best. the staff were genuinely friendly and helpful. our first room had a tv that didnt work and they could not have apologised more and gave us an upgraded room. the whole place was scrupulously clean and fresh. no finger marks anywhere, mirrors gleaming. close to anything you would want to go to. I was a bit unwell and the manager was so helpful and genuinely concerned.i would and will recommend this to anyone i know is going to the areaMore</t>
   </si>
   <si>
+    <t>William C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r143567690-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1877,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>JOHN P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r142752189-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1619,6 +1889,9 @@
     <t>10/13/2012</t>
   </si>
   <si>
+    <t>pete k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r118909820-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1646,6 +1919,9 @@
     <t>We have stayed there the last 7 years for the oklahoma, texas football game, although the breakfast can be improved,, We have always found the staff to be very courteous and congenial, as well as helpful and the rooms clean,, other negative reports on here are from people i think just to create a stir,,, I have been in customer service field for 30 years and applaud their effort to accommodate.More</t>
   </si>
   <si>
+    <t>Warmnote</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r99559419-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1673,6 +1949,9 @@
     <t>This hotel is well located.  I didn't  feel well and decided to stay overnight.  I was able to check in at 2pm.  Service was quick, friendly.  This is not a new hotel but everything had been fixed up and is clean.  The best part was the bed!  This is the best matteress I've slept on in a hotel other than one of the upper-scale hotels (Westin, etc.).  Very quiet, also.  I didn't try the breakfast....was sleeping in, in the great bed.  There is a Denny's just down the street, and many restaurants  in this area.  I will definitely go back, especially at $54 for a king room.More</t>
   </si>
   <si>
+    <t>fireapparatus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r75532081-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1700,6 +1979,9 @@
     <t>This hotel operator is a crook, He does not care, advertises one price and charges you more when you get there, rooms stink, they are dirty and ran down. When I seen the room i told him I would not stay and give me back my moneyback that I just paid him 5 minutes earlier, he told me no   I would have to contest on my credit card,  I was told if i dont like it leave.More</t>
   </si>
   <si>
+    <t>travelingolfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r32153955-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1721,6 +2003,9 @@
     <t>I have stayed at the Super 8 in Plano, TX at least 15+ times since March.  I have been working in the DFW area and when I stay in the same city I like to find a hotel to set up shop.  They have just recarpeted the hotel and I have never encountered any rude staff.  Sure there are some college age kids that run the desk at night and they might be a little more concerned with their iphone then being in hurry but not rude.  They have a ton of channels to watch (including the Golf Channel).  Bathrooms are clean and have good pressure, room 220 is a great room.  There are a ton of restaurants nearby including a mall.  Its easy to get on and off the highway.  I read the bad reviews and I disagree with them.  Chalk them up to having an off night at the hotel.  It is a very nice place to stay.More</t>
   </si>
   <si>
+    <t>TRAVEL200GIRL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r20204299-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
   </si>
   <si>
@@ -1740,6 +2025,9 @@
   </si>
   <si>
     <t>After a long trip, my family and I were relieved to finally arrive at the hotel.  Upon checking in, we were greeted by the friendly front-desk clerk (her manager was a bit less pleasant).  Anyhow, we checked in (reserved 3 rooms total) and viewed all rooms.  The rooms weren't the best, but they were livable.  Besides, we had both of our dogs with us (one of the perks about this hotel is that they take pets for a small daily fee).  To be honest, this hotel is a low-budget hotel.  There's no pool, the breakfast is very poor, and be careful b/c the elevator doesn't always work.  Boy, did I get my exercise going up and down to the 3rd floor--guess that made up for the fact that there is no fitness facility.  Two of my family member got stuck in the elevator for about 20 minutes.  I probably wouldn't stay there again if I were in the area, but if anyone does decide to lodge at Super 8 Plano, Tx, please be sure to have your Lysol.  Spray everything and I do mean everything, including the carpet!  Happy Lodging!More</t>
+  </si>
+  <si>
+    <t>hubpaula</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106518-r17223937-Super_8_Plano_Dallas_Area-Plano_Texas.html</t>
@@ -2265,43 +2553,47 @@
       <c r="A2" t="n">
         <v>31536</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>179456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -2325,35 +2617,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31536</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>179457</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2361,10 +2657,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2385,51 +2681,52 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31536</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>179458</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2443,50 +2740,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31536</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>179459</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2498,54 +2799,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31536</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>179460</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2567,54 +2872,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31536</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>179461</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2636,56 +2945,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
         <v>86</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31536</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>179462</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2707,56 +3020,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31536</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>179463</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2768,54 +3085,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31536</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>179464</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2837,56 +3158,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31536</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>179465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2904,56 +3229,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31536</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>179466</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2975,56 +3304,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31536</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3553</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3036,56 +3369,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31536</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>179467</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3107,54 +3444,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="X14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31536</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>179468</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3176,56 +3517,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="X15" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31536</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>179469</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3247,56 +3592,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="X16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31536</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>179470</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3318,47 +3667,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="X17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31536</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>65398</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
@@ -3375,41 +3728,45 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="X18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31536</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>179471</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3417,10 +3774,10 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3441,49 +3798,50 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31536</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>26067</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3507,50 +3865,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31536</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>179472</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3574,50 +3936,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31536</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>179473</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3641,50 +4007,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31536</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>179474</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3708,35 +4078,39 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31536</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>179475</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3744,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3768,51 +4142,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31536</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>179476</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3836,50 +4211,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31536</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>179477</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3903,50 +4282,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31536</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>179478</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3966,35 +4349,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31536</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>179479</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -4002,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4026,36 +4413,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31536</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -4063,10 +4451,10 @@
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4087,51 +4475,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31536</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>179480</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4145,50 +4534,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31536</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4208,48 +4601,52 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31536</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>179481</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4273,50 +4670,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31536</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>179482</v>
+      </c>
+      <c r="C33" t="s">
+        <v>260</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4340,50 +4741,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31536</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>179483</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4407,50 +4812,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31536</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>74380</v>
+      </c>
+      <c r="C35" t="s">
+        <v>273</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4474,50 +4883,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31536</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>179484</v>
+      </c>
+      <c r="C36" t="s">
+        <v>281</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="J36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4541,50 +4954,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31536</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="J37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4602,50 +5019,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31536</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>116084</v>
+      </c>
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4659,50 +5080,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31536</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>89929</v>
+      </c>
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4726,48 +5151,52 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31536</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>179485</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4791,50 +5220,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31536</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>179486</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="J41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4854,50 +5287,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31536</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>5914</v>
+      </c>
+      <c r="C42" t="s">
+        <v>320</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4917,48 +5354,52 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31536</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>179487</v>
+      </c>
+      <c r="C43" t="s">
+        <v>327</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4982,50 +5423,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31536</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>179488</v>
+      </c>
+      <c r="C44" t="s">
+        <v>331</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5039,50 +5484,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31536</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>179489</v>
+      </c>
+      <c r="C45" t="s">
+        <v>339</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="J45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5098,50 +5547,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31536</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>179490</v>
+      </c>
+      <c r="C46" t="s">
+        <v>347</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5165,50 +5618,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31536</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>179491</v>
+      </c>
+      <c r="C47" t="s">
+        <v>353</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="J47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="K47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="O47" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5224,50 +5681,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31536</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>179492</v>
+      </c>
+      <c r="C48" t="s">
+        <v>360</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="J48" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5291,50 +5752,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31536</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>179493</v>
+      </c>
+      <c r="C49" t="s">
+        <v>367</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5348,50 +5813,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31536</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>179494</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="O50" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5415,50 +5884,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31536</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>18778</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5482,50 +5955,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>31536</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>179495</v>
+      </c>
+      <c r="C52" t="s">
+        <v>387</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5543,50 +6020,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>31536</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>179496</v>
+      </c>
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="J53" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="K53" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5610,50 +6091,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>31536</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>10079</v>
+      </c>
+      <c r="C54" t="s">
+        <v>398</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="J54" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5677,50 +6162,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>31536</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>179497</v>
+      </c>
+      <c r="C55" t="s">
+        <v>406</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="J55" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="O55" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5734,35 +6223,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>31536</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>179498</v>
+      </c>
+      <c r="C56" t="s">
+        <v>413</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="J56" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5770,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5794,36 +6287,37 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>31536</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>179499</v>
+      </c>
+      <c r="C57" t="s">
+        <v>418</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5831,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5855,51 +6349,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>31536</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>179500</v>
+      </c>
+      <c r="C58" t="s">
+        <v>422</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="J58" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="K58" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5917,35 +6412,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>31536</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>179501</v>
+      </c>
+      <c r="C59" t="s">
+        <v>428</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="J59" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5953,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="O59" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5977,51 +6476,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>31536</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>179502</v>
+      </c>
+      <c r="C60" t="s">
+        <v>433</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="J60" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="K60" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="O60" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6041,35 +6541,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>31536</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>6976</v>
+      </c>
+      <c r="C61" t="s">
+        <v>440</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="J61" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6077,10 +6581,10 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6101,51 +6605,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>31536</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>179503</v>
+      </c>
+      <c r="C62" t="s">
+        <v>443</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="J62" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="K62" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="O62" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6167,50 +6672,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>31536</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>179504</v>
+      </c>
+      <c r="C63" t="s">
+        <v>449</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="J63" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="K63" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6234,35 +6743,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>31536</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>179505</v>
+      </c>
+      <c r="C64" t="s">
+        <v>454</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="J64" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6270,10 +6783,10 @@
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="O64" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6294,36 +6807,37 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>31536</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>179506</v>
+      </c>
+      <c r="C65" t="s">
+        <v>458</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="J65" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6331,10 +6845,10 @@
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6355,36 +6869,37 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>31536</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C66" t="s">
+        <v>463</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="J66" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6392,10 +6907,10 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="O66" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6410,36 +6925,37 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>31536</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>23637</v>
+      </c>
+      <c r="C67" t="s">
+        <v>468</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="J67" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6447,10 +6963,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6471,51 +6987,52 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>31536</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>3187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>472</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="J68" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="K68" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="O68" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -6535,50 +7052,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>31536</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>82631</v>
+      </c>
+      <c r="C69" t="s">
+        <v>480</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="J69" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="K69" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6598,50 +7119,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>31536</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>179507</v>
+      </c>
+      <c r="C70" t="s">
+        <v>487</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="K70" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6661,35 +7186,39 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>31536</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C71" t="s">
+        <v>494</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="J71" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6697,10 +7226,10 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6721,51 +7250,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>31536</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>179508</v>
+      </c>
+      <c r="C72" t="s">
+        <v>499</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="J72" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="K72" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6789,48 +7319,52 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>31536</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>2464</v>
+      </c>
+      <c r="C73" t="s">
+        <v>505</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="J73" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -6854,50 +7388,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>31536</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>19606</v>
+      </c>
+      <c r="C74" t="s">
+        <v>510</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="J74" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="K74" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="L74" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="O74" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -6921,35 +7459,39 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>31536</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>245</v>
+      </c>
+      <c r="C75" t="s">
+        <v>518</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="J75" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -6957,10 +7499,10 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="O75" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -6981,36 +7523,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>31536</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>15835</v>
+      </c>
+      <c r="C76" t="s">
+        <v>522</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="J76" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7018,10 +7561,10 @@
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="O76" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7042,51 +7585,52 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>31536</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>179509</v>
+      </c>
+      <c r="C77" t="s">
+        <v>525</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="J77" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="K77" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
       <c r="L77" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7110,35 +7654,39 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>31536</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>36565</v>
+      </c>
+      <c r="C78" t="s">
+        <v>532</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="J78" t="s">
-        <v>458</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7146,10 +7694,10 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="O78" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7170,36 +7718,37 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>31536</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>4279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>536</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="J79" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7207,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="O79" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7231,51 +7780,52 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>31536</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>179510</v>
+      </c>
+      <c r="C80" t="s">
+        <v>541</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="J80" t="s">
-        <v>465</v>
+        <v>544</v>
       </c>
       <c r="K80" t="s">
-        <v>466</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s">
-        <v>467</v>
+        <v>546</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="O80" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7299,48 +7849,52 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>467</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>31536</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>967</v>
+      </c>
+      <c r="C81" t="s">
+        <v>548</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="J81" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7364,35 +7918,39 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>31536</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>179511</v>
+      </c>
+      <c r="C82" t="s">
+        <v>553</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>473</v>
+        <v>554</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="J82" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7400,10 +7958,10 @@
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="O82" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7424,51 +7982,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>31536</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>22731</v>
+      </c>
+      <c r="C83" t="s">
+        <v>557</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>476</v>
+        <v>558</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="J83" t="s">
-        <v>478</v>
+        <v>560</v>
       </c>
       <c r="K83" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="L83" t="s">
-        <v>480</v>
+        <v>562</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="O83" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7492,35 +8051,39 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>31536</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>179512</v>
+      </c>
+      <c r="C84" t="s">
+        <v>565</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>483</v>
+        <v>566</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>484</v>
+        <v>567</v>
       </c>
       <c r="J84" t="s">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7528,10 +8091,10 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="O84" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7542,51 +8105,52 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>31536</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>179513</v>
+      </c>
+      <c r="C85" t="s">
+        <v>570</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="J85" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="K85" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="L85" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>2</v>
@@ -7610,35 +8174,39 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>31536</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>179514</v>
+      </c>
+      <c r="C86" t="s">
+        <v>577</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>493</v>
+        <v>578</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="J86" t="s">
-        <v>495</v>
+        <v>580</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7646,10 +8214,10 @@
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>496</v>
+        <v>581</v>
       </c>
       <c r="O86" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7670,51 +8238,52 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>31536</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>1714</v>
+      </c>
+      <c r="C87" t="s">
+        <v>582</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="J87" t="s">
-        <v>495</v>
+        <v>580</v>
       </c>
       <c r="K87" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
       <c r="L87" t="s">
-        <v>500</v>
+        <v>586</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>496</v>
+        <v>581</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -7738,50 +8307,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>500</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>31536</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>16589</v>
+      </c>
+      <c r="C88" t="s">
+        <v>587</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>502</v>
+        <v>589</v>
       </c>
       <c r="J88" t="s">
-        <v>503</v>
+        <v>590</v>
       </c>
       <c r="K88" t="s">
-        <v>504</v>
+        <v>591</v>
       </c>
       <c r="L88" t="s">
-        <v>505</v>
+        <v>592</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>506</v>
+        <v>593</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7805,50 +8378,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>505</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>31536</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>179515</v>
+      </c>
+      <c r="C89" t="s">
+        <v>594</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>508</v>
+        <v>596</v>
       </c>
       <c r="J89" t="s">
-        <v>509</v>
+        <v>597</v>
       </c>
       <c r="K89" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
       <c r="L89" t="s">
-        <v>511</v>
+        <v>599</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>512</v>
+        <v>600</v>
       </c>
       <c r="O89" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -7870,54 +8447,58 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
       <c r="X89" t="s">
-        <v>514</v>
+        <v>602</v>
       </c>
       <c r="Y89" t="s">
-        <v>515</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>31536</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>2252</v>
+      </c>
+      <c r="C90" t="s">
+        <v>604</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>516</v>
+        <v>605</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>517</v>
+        <v>606</v>
       </c>
       <c r="J90" t="s">
-        <v>518</v>
+        <v>607</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>519</v>
+        <v>608</v>
       </c>
       <c r="O90" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -7939,54 +8520,58 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
       <c r="X90" t="s">
-        <v>514</v>
+        <v>602</v>
       </c>
       <c r="Y90" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>31536</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>16180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>609</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>521</v>
+        <v>611</v>
       </c>
       <c r="J91" t="s">
-        <v>522</v>
+        <v>612</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>519</v>
+        <v>608</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8008,56 +8593,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
       <c r="X91" t="s">
-        <v>514</v>
+        <v>602</v>
       </c>
       <c r="Y91" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>31536</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>105887</v>
+      </c>
+      <c r="C92" t="s">
+        <v>613</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>523</v>
+        <v>614</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>524</v>
+        <v>615</v>
       </c>
       <c r="J92" t="s">
-        <v>525</v>
+        <v>616</v>
       </c>
       <c r="K92" t="s">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="L92" t="s">
-        <v>527</v>
+        <v>618</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>528</v>
+        <v>619</v>
       </c>
       <c r="O92" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8079,56 +8668,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>529</v>
+        <v>620</v>
       </c>
       <c r="X92" t="s">
-        <v>530</v>
+        <v>621</v>
       </c>
       <c r="Y92" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>31536</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>179516</v>
+      </c>
+      <c r="C93" t="s">
+        <v>623</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>532</v>
+        <v>624</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>533</v>
+        <v>625</v>
       </c>
       <c r="J93" t="s">
-        <v>534</v>
+        <v>626</v>
       </c>
       <c r="K93" t="s">
-        <v>535</v>
+        <v>627</v>
       </c>
       <c r="L93" t="s">
-        <v>536</v>
+        <v>628</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>537</v>
+        <v>629</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8150,56 +8743,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>538</v>
+        <v>630</v>
       </c>
       <c r="X93" t="s">
-        <v>539</v>
+        <v>631</v>
       </c>
       <c r="Y93" t="s">
-        <v>540</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>31536</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>179517</v>
+      </c>
+      <c r="C94" t="s">
+        <v>633</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>541</v>
+        <v>634</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>542</v>
+        <v>635</v>
       </c>
       <c r="J94" t="s">
-        <v>543</v>
+        <v>636</v>
       </c>
       <c r="K94" t="s">
-        <v>544</v>
+        <v>637</v>
       </c>
       <c r="L94" t="s">
-        <v>545</v>
+        <v>638</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>546</v>
+        <v>639</v>
       </c>
       <c r="O94" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8221,56 +8818,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>547</v>
+        <v>640</v>
       </c>
       <c r="X94" t="s">
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="Y94" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>31536</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>179518</v>
+      </c>
+      <c r="C95" t="s">
+        <v>643</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
       <c r="J95" t="s">
-        <v>552</v>
+        <v>646</v>
       </c>
       <c r="K95" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
       <c r="L95" t="s">
-        <v>554</v>
+        <v>648</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>555</v>
+        <v>649</v>
       </c>
       <c r="O95" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8292,56 +8893,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>547</v>
+        <v>640</v>
       </c>
       <c r="X95" t="s">
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="Y95" t="s">
-        <v>556</v>
+        <v>650</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>31536</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>36355</v>
+      </c>
+      <c r="C96" t="s">
+        <v>651</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>557</v>
+        <v>652</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>558</v>
+        <v>653</v>
       </c>
       <c r="J96" t="s">
-        <v>559</v>
+        <v>654</v>
       </c>
       <c r="K96" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="L96" t="s">
-        <v>561</v>
+        <v>656</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>562</v>
+        <v>657</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8363,56 +8968,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>547</v>
+        <v>640</v>
       </c>
       <c r="X96" t="s">
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="Y96" t="s">
-        <v>563</v>
+        <v>658</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>31536</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>179519</v>
+      </c>
+      <c r="C97" t="s">
+        <v>659</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>564</v>
+        <v>660</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>565</v>
+        <v>661</v>
       </c>
       <c r="J97" t="s">
-        <v>566</v>
+        <v>662</v>
       </c>
       <c r="K97" t="s">
-        <v>567</v>
+        <v>663</v>
       </c>
       <c r="L97" t="s">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -8434,13 +9043,13 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>547</v>
+        <v>640</v>
       </c>
       <c r="X97" t="s">
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="Y97" t="s">
-        <v>570</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
